--- a/data/09_17_25_tradewheel_scrap.xlsx
+++ b/data/09_17_25_tradewheel_scrap.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F140"/>
+  <dimension ref="A1:F197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -477,583 +477,583 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>12 hours ago</t>
+          <t>1 hour ago</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Searching For Vinegar Powder</t>
+          <t>Requirement of tray</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/searching-for-vinegar-powder/874158/</t>
+          <t>https://www.tradewheel.com/buyers/requirement-of-tray/874245/</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Hi we are looking for Vinegar Powder in Portugal We need prices for 1, 10, 20 kgs Please share your product details Thank you</t>
+          <t>We are looking to source molded fiber pulp trays for FMCG and F&amp;B packaging applications. The trays should be made of 100% biodegradable molded fiber, food-grade quality, and resistant to water and oil. Our initial requirement is 10,000 pieces as a t...</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Republic of Türkiye</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>14 hours ago</t>
+          <t>2 hours ago</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Looking for Electric Arc Furnace (EAF) or Induction Furnace for the production of steel slabs</t>
+          <t>Inquiring For Block Rubber</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/looking-for-electric-arc-furnace-eaf-or-induction/874144/</t>
+          <t>https://www.tradewheel.com/buyers/inquiring-for-block-rubber/874283/</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Hi We are looking for Electric Arc Furnace (EAF) or Induction Furnace for the production of steel slabs Electric Arc Furnace (EAF) or Induction Furnace Capacity sufficient for 1,600 tons/day</t>
+          <t>Hello We are looking for Block Rubber TSR 10 in Turkey We use about 200 tons please share your product details with us Thank you</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Venezuela</t>
+          <t>Ethiopia</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>15 hours ago</t>
+          <t>3 hours ago</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>RFQ for Wireless smart glasses</t>
+          <t>Looking For Steel Rebars</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/rfq-for-wireless-smart-glasses/874137/</t>
+          <t>https://www.tradewheel.com/buyers/looking-for-steel-rebars/874251/</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Hi, I am interested in these products. Product: AIMB-G1 Smart Glasses - Bluetooth Calling Recording Photo Shooting Video Recording AI Voice Translation Sunglasses Model Number: AIMB-G1 Product Type: Wireless smart glasses</t>
+          <t>Hello We are searching for Steel Rebars in Ethiopia We would like to know the price of 100MT Please share your good price with us Thank you</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>15 hours ago</t>
+          <t>13 hours ago</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>RFQ for sports water bottle</t>
+          <t>Ready to buy 32" LCD Freezing Separator</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/rfq-for-sports-water-bottle/874132/</t>
+          <t>https://www.tradewheel.com/buyers/ready-to-buy-32-lcd-freezing-separator/874195/</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>We are looking for 2000 sport water bottle How much will be cost delivery to Poland? adress: 42-233 Lubojenka Size: 10.5cm*29.5cm Color: Purple/Blue/Pink/Black Capacity: 2000ml Materia: Plastic Craft: Machine Made applicable people: Adults the...</t>
+          <t>Ready to buy 32" LCD freezing separator machines. Looking for reliable suppliers with warranty support.</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Malaysia</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>15 hours ago</t>
+          <t>13 hours ago</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Buying Coffee Robusta And Arabica For Trading And Wholesale Needs</t>
+          <t>Want to source Fruit Trees Scissors</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/buying-coffee-robusta-and-arabica-for-trading-and/874125/</t>
+          <t>https://www.tradewheel.com/buyers/want-to-source-fruit-trees-scissors/874197/</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Our requirement is Arabica beans with 12% moisture, screen size 17/18, and Robusta beans with caffeine above 2.5%.</t>
+          <t>Want to source durable fruit trees scissors for wholesale. Please provide product details and competitive offers.</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>15 hours ago</t>
+          <t>13 hours ago</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>In Search Of Jewelry For Fashion And Retail Collection</t>
+          <t>Purchasing Eggs in bulk</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/in-search-of-jewelry-for-fashion-and-retail/874124/</t>
+          <t>https://www.tradewheel.com/buyers/purchasing-eggs-in-bulk/874200/</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Hello, We are seeking suppliers of jewelry for wholesale and retail markets. Fine craftsmanship and competitive pricing are required. Thank you.</t>
+          <t>Purchasing fresh and graded eggs in bulk quantity. Suppliers must ensure timely delivery and consistent quality.</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>15 hours ago</t>
+          <t>13 hours ago</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Planning To Purchase Golf Bags For Sports And Retail Distribution</t>
+          <t>Need Urea urgently</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/planning-to-purchase-golf-bags-for-sports-and/874123/</t>
+          <t>https://www.tradewheel.com/buyers/need-urea-urgently/874201/</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Our requirement is golf bags made from waterproof polyester, 9-inch top divider, with multiple pockets and padded straps.</t>
+          <t>Need Urea urgently for agricultural supply. Interested suppliers with immediate availability kindly respond.</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>15 hours ago</t>
+          <t>13 hours ago</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>RFQ for LED driver</t>
+          <t>Would like to import Vapes</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/rfq-for-led-driver/874122/</t>
+          <t>https://www.tradewheel.com/buyers/would-like-to-import-vapes/874204/</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>We are looking to sell a specific type of LED driver based on the video image. The driver is designed for constant current Diming, superior for various lighting applications. This item is essential for efficient and reliable lighting setups, ensuring...</t>
+          <t>Would like to import premium quality vape devices and accessories. Looking for exporters with international shipping capability.</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Israel</t>
+          <t>Ethiopia</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>15 hours ago</t>
+          <t>13 hours ago</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Requirement Of Dining Table For Home And Furniture Supply</t>
+          <t>Would like to buy Copier Paper</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/requirement-of-dining-table-for-home-and-furniture/874121/</t>
+          <t>https://www.tradewheel.com/buyers/would-like-to-buy-copier-paper/874206/</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Our firm requires dining tables with seating for 6, made from oak wood, polished finish, and dimensions approx. 180x90x75cm.</t>
+          <t>Would like to buy A4 copier paper in wholesale quantity. Suppliers offering competitive rates are welcome to connect.</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>15 hours ago</t>
+          <t>13 hours ago</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>In Search Of Bicycle Helmet For Safety And Retail Supply</t>
+          <t>Looking for Skinbooster</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/in-search-of-bicycle-helmet-for-safety-and/874118/</t>
+          <t>https://www.tradewheel.com/buyers/looking-for-skinbooster/874209/</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>We are sourcing bicycle helmets for sports and safety markets. Specifications: Material: EPS foam with PC shell Ventilation: 18–22 air vents Certification: CE EN1078 / CPSC Size: Adjustable M–XL</t>
+          <t>Looking for original and certified skinbooster products. Suppliers with ready stock, please provide detailed quotation.</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>15 hours ago</t>
+          <t>13 hours ago</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Buying Embroidery Patch For Garment And Textile Accessories</t>
+          <t>Looking for continuous supply of Charcoal</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/buying-embroidery-patch-for-garment-and-textile-accessories/874117/</t>
+          <t>https://www.tradewheel.com/buyers/looking-for-continuous-supply-of-charcoal/874211/</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Our business has an upcoming demand for custom embroidery patches. Specifications: Backing: Iron-on / Velcro / Sew-on Size: 2–5 inches Border: Merrowed / heat-cut MOQ: 100 pcs per design</t>
+          <t>Looking for continuous supply of natural charcoal for export. Suppliers with long-term supply capacity kindly reach out.</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Kazakhstan</t>
+          <t>Lebanon</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>15 hours ago</t>
+          <t>13 hours ago</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Planning To Purchase Ferrous Sulfate For Chemical And Agriculture Use</t>
+          <t>Rush order for Lentils – Contact ASAP</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/planning-to-purchase-ferrous-sulfate-for-chemical-and/874116/</t>
+          <t>https://www.tradewheel.com/buyers/rush-order-for-lentils-contact-asap/874212/</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>I’d like to check availability of ferrous sulfate in bulk. Information on origin, moisture content, and delivery capacity would be appreciated.</t>
+          <t>Rush order requirement for high-quality lentils. Please share availability and best offers at the earliest.</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Hong Kong</t>
+          <t>Republic of Türkiye</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>15 hours ago</t>
+          <t>13 hours ago</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Requirement Of Pressure Gauge For Industrial Applications</t>
+          <t>Planning bulk order of Used Clothes</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/requirement-of-pressure-gauge-for-industrial-applications/874115/</t>
+          <t>https://www.tradewheel.com/buyers/planning-bulk-order-of-used-clothes/874213/</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Our company is looking for pressure gauges in different sizes and models. Please share information on connection types, durability, and MOQ for bulk procurement.</t>
+          <t>Planning bulk order of sorted and graded used clothes. Reliable exporters with competitive prices are encouraged to connect.</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>15 hours ago</t>
+          <t>13 hours ago</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Planning To Purchase Wedding Tent For Event And Rental Supply</t>
+          <t>Ready to place order for Wide Screen 32 Inch LED TV</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/planning-to-purchase-wedding-tent-for-event-and/874113/</t>
+          <t>https://www.tradewheel.com/buyers/ready-to-place-order-for-wide-screen-32/874216/</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>We are seeking offers for durable wedding tents for event supply. Specifications: Frame: Powder-coated steel or aluminum Cover: PVC / polyester fabric, waterproof Size: Customizable (10m–50m span) Sidewalls: Transparent or plain</t>
+          <t>Ready to place order for wide screen support 32 inch LED TVs. Looking for trusted manufacturers with bulk supply capability.</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>15 hours ago</t>
+          <t>13 hours ago</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Buying Fishing Reel For Outdoor And Sporting Goods Market</t>
+          <t>Immediate purchase – Cookware</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/buying-fishing-reel-for-outdoor-and-sporting-goods/874112/</t>
+          <t>https://www.tradewheel.com/buyers/immediate-purchase-cookware/874220/</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Our firm is planning to procure fishing reels for sports and retail markets. Specifications: Type: Spinning / baitcasting Gear ratio: 5.2:1 / 6.2:1 Material: Aluminum body, graphite spool Ball bearings: 8+1</t>
+          <t>Immediate purchase of premium quality cookware sets. Interested suppliers kindly share catalog and pricing details.</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>15 hours ago</t>
+          <t>13 hours ago</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Looking To Source Sesame Seed For Food Processing And Trade</t>
+          <t>Urgent requirement of Korean Skincare</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/looking-to-source-sesame-seed-for-food-processing/874111/</t>
+          <t>https://www.tradewheel.com/buyers/urgent-requirement-of-korean-skincare/874222/</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>We need a trusted source for sesame seed in bulk quantities. Specifications: Type: White / black / hulled Purity: 99.95% min Moisture: ≤6% Packaging: 25kg / 50kg bags</t>
+          <t>We have an urgent requirement of authentic Korean skincare products. Suppliers with quality certifications are requested to contact us immediately.</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Tanzania</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>15 hours ago</t>
+          <t>13 hours ago</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Need Surgical Instruments For Medical And Hospital Supplies</t>
+          <t>Willing To Buy Alfalfa Hay</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/need-surgical-instruments-for-medical-and-hospital-supplies/874110/</t>
+          <t>https://www.tradewheel.com/buyers/willing-to-buy-alfalfa-hay/874227/</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>I’d like to review your range of surgical instruments along with certifications, warranty terms, and MOQ for bulk procurement.</t>
+          <t>We are looking for an immediate purchase of Alfalfa Hay in large quantities. Competitive pricing and quick delivery will be prioritized.</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>15 hours ago</t>
+          <t>13 hours ago</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Importing Frozen Chicken For Food Distribution Business</t>
+          <t>Searching For Compressor Scrap</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/importing-frozen-chicken-for-food-distribution-business/874109/</t>
+          <t>https://www.tradewheel.com/buyers/searching-for-compressor-scrap/874306/</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>We are open to offers on frozen chicken. Do you supply whole chicken as well as parts (wings, thighs, breasts)?</t>
+          <t>Hi Looking to purchase 50 tons of scrap fridge compressors. Are you able to supply please. If so, what price, looking for ongoing purchases. For shipping to Australia. Thanks</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1063,253 +1063,253 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Planning To Buy Nylon Fabric For Apparel And Industrial Use</t>
+          <t>Inquiry about: red kidney</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/planning-to-buy-nylon-fabric-for-apparel-and/874108/</t>
+          <t>https://www.tradewheel.com/buyers/inquiry-about-red-kidney/874188/</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Greetings, We are evaluating suppliers of nylon fabric for garment and industrial use. Strength and colorfastness are important to us. Best regards.</t>
+          <t>My company is interested to buy your products in a large quantities please contact us through our WhatsApp number for more discussions.</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>15 hours ago</t>
+          <t>17 hours ago</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Requirement Of Keypad Access Control Systems For Security Projects</t>
+          <t>Inquiry about: Automatic Hydraulic Press Rubber Sole Shoe Machine</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/requirement-of-keypad-access-control-systems-for-security/874107/</t>
+          <t>https://www.tradewheel.com/buyers/inquiry-about-automatic-hydraulic-press-rubber-sole-shoe/874168/</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>I’d like to check your keypad access control solutions with details on installation, power requirements, and bulk order capacity.</t>
+          <t>i want semi auto hydraulic rubber press machine.</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>16 hours ago</t>
+          <t>17 hours ago</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Importing Steel Wire Rope for fabrication works</t>
+          <t>Inquiry about: Tube Deflator 100% Brass Stem Professional Tire Repair Tools Brass Clip-on Air Chuck</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/importing-steel-wire-rope-for-fabrication-works/874076/</t>
+          <t>https://www.tradewheel.com/buyers/inquiry-about-tube-deflator-100-brass-stem-professional/874166/</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>We are seeking steel wire ropes for industrial and lifting applications. Specifications: Construction: 6×19 or 6×37 strands Breaking load: 3–20 tons Coating: Galvanized or PVC coated Rope flexibility class: 15–35</t>
+          <t>I would like to buy this</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>16 hours ago</t>
+          <t>17 hours ago</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Looking For Crude Oil</t>
+          <t>Searching For Vinegar Powder</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/looking-for-crude-oil/874075/</t>
+          <t>https://www.tradewheel.com/buyers/searching-for-vinegar-powder/874158/</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Hi, I am looking for crude oil in Kenya. I need 10 tons. Please send me your best price. Thank you.</t>
+          <t>Hi we are looking for Vinegar Powder in Portugal We need prices for 1, 10, 20 kgs Please share your product details Thank you</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>16 hours ago</t>
+          <t>19 hours ago</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Importing Umbrella for wholesale distribution</t>
+          <t>Looking for Electric Arc Furnace (EAF) or Induction Furnace for the production of steel slabs</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/importing-umbrella-for-wholesale-distribution/874072/</t>
+          <t>https://www.tradewheel.com/buyers/looking-for-electric-arc-furnace-eaf-or-induction/874144/</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>I am looking to procure umbrellas for retail distribution with durable and stylish designs. Specifications: Frame: Steel or fiberglass Canopy diameter: 100–120cm Auto open/close feature Water-repellent fabric</t>
+          <t>Hi We are looking for Electric Arc Furnace (EAF) or Induction Furnace for the production of steel slabs Electric Arc Furnace (EAF) or Induction Furnace Capacity sufficient for 1,600 tons/day</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Venezuela</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>16 hours ago</t>
+          <t>20 hours ago</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Require Waterproofing Membrane for construction projects</t>
+          <t>RFQ for Wireless smart glasses</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/require-waterproofing-membrane-for-construction-projects/874071/</t>
+          <t>https://www.tradewheel.com/buyers/rfq-for-wireless-smart-glasses/874137/</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>We are sourcing waterproofing membranes for construction projects and industrial applications. Specifications: Thickness: 1.2–2mm Material: Polymer-modified bitumen Roll length: 10–20m UV resistant</t>
+          <t>Hi, I am interested in these products. Product: AIMB-G1 Smart Glasses - Bluetooth Calling Recording Photo Shooting Video Recording AI Voice Translation Sunglasses Model Number: AIMB-G1 Product Type: Wireless smart glasses</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>16 hours ago</t>
+          <t>20 hours ago</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Cassava</t>
+          <t>Buying Coffee Robusta And Arabica For Trading And Wholesale Needs</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/cassava/874068/</t>
+          <t>https://www.tradewheel.com/buyers/buying-coffee-robusta-and-arabica-for-trading-and/874125/</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Product: Cassava chips Requirement: I need 5000 tons</t>
+          <t>Our requirement is Arabica beans with 12% moisture, screen size 17/18, and Robusta beans with caffeine above 2.5%.</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Kenya</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>17 hours ago</t>
+          <t>20 hours ago</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Looking For Skin Care Products</t>
+          <t>In Search Of Jewelry For Fashion And Retail Collection</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/looking-for-skin-care-products/874058/</t>
+          <t>https://www.tradewheel.com/buyers/in-search-of-jewelry-for-fashion-and-retail/874124/</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Hi We are looking for Skin Care Products in Kenya We would like to know the prices of Creams, Lotions, Petroleum Jelly etc 1000pcs each Please write back to us Thank you</t>
+          <t>Hello, We are seeking suppliers of jewelry for wholesale and retail markets. Fine craftsmanship and competitive pricing are required. Thank you.</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1319,29 +1319,29 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Immediate Purchase Of Bicycles</t>
+          <t>Planning To Purchase Golf Bags For Sports And Retail Distribution</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/immediate-purchase-of-bicycles/874022/</t>
+          <t>https://www.tradewheel.com/buyers/planning-to-purchase-golf-bags-for-sports-and/874123/</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Greetings, We are sourcing high-quality bicycles for distribution. The bicycles must be durable and suitable for both adults and children. Thank you.</t>
+          <t>Our requirement is golf bags made from waterproof polyester, 9-inch top divider, with multiple pockets and padded straps.</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1351,29 +1351,29 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Buying custom melamine cabinets</t>
+          <t>RFQ for LED driver</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/buying-custom-melamine-cabinets/874021/</t>
+          <t>https://www.tradewheel.com/buyers/rfq-for-led-driver/874122/</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Good day, We are interested in buying custom melamine cabinets. The cabinets must be durable, space-efficient and available in different designs. Thank you.</t>
+          <t>We are looking to sell a specific type of LED driver based on the video image. The driver is designed for constant current Diming, superior for various lighting applications. This item is essential for efficient and reliable lighting setups, ensuring...</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Israel</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1383,253 +1383,253 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Need golden ear fungus mushroom</t>
+          <t>Requirement Of Dining Table For Home And Furniture Supply</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/need-golden-ear-fungus-mushroom/874018/</t>
+          <t>https://www.tradewheel.com/buyers/requirement-of-dining-table-for-home-and-furniture/874121/</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Hi there, We are interested in buying golden ear fungus mushrooms. The mushrooms should be sun-dried, naturally processed and meet quality standards.</t>
+          <t>Our firm requires dining tables with seating for 6, made from oak wood, polished finish, and dimensions approx. 180x90x75cm.</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>20 hours ago</t>
+          <t>21 hours ago</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Immediate purchase of agriculture drones</t>
+          <t>In Search Of Bicycle Helmet For Safety And Retail Supply</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/immediate-purchase-of-agriculture-drones/874017/</t>
+          <t>https://www.tradewheel.com/buyers/in-search-of-bicycle-helmet-for-safety-and/874118/</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Greetings, We are currently sourcing agriculture drones. We are particularly looking for drones which must be capable of spraying, mapping &amp; monitoring crops efficiently.</t>
+          <t>We are sourcing bicycle helmets for sports and safety markets. Specifications: Material: EPS foam with PC shell Ventilation: 18–22 air vents Certification: CE EN1078 / CPSC Size: Adjustable M–XL</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Uzbekistan</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>20 hours ago</t>
+          <t>21 hours ago</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Planning To Buy Canned Pumps</t>
+          <t>Buying Embroidery Patch For Garment And Textile Accessories</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/planning-to-buy-canned-pumps/874015/</t>
+          <t>https://www.tradewheel.com/buyers/buying-embroidery-patch-for-garment-and-textile-accessories/874117/</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Hi there, We are currently sourcing canned pumps. The pumps must be durable, efficient, and designed for handling corrosive fluids. Thank you.</t>
+          <t>Our business has an upcoming demand for custom embroidery patches. Specifications: Backing: Iron-on / Velcro / Sew-on Size: 2–5 inches Border: Merrowed / heat-cut MOQ: 100 pcs per design</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>20 hours ago</t>
+          <t>21 hours ago</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>In Search Of Melamine Boards</t>
+          <t>Planning To Purchase Ferrous Sulfate For Chemical And Agriculture Use</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/in-search-of-melamine-boards/874013/</t>
+          <t>https://www.tradewheel.com/buyers/planning-to-purchase-ferrous-sulfate-for-chemical-and/874116/</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Hello, We are looking to purchase melamine boards. The boards must be strong, smooth and resistant to scratches and moisture. Thank you.</t>
+          <t>I’d like to check availability of ferrous sulfate in bulk. Information on origin, moisture content, and delivery capacity would be appreciated.</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Hong Kong</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>20 hours ago</t>
+          <t>21 hours ago</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>In search of body shapers</t>
+          <t>Requirement Of Pressure Gauge For Industrial Applications</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/in-search-of-body-shapers/874012/</t>
+          <t>https://www.tradewheel.com/buyers/requirement-of-pressure-gauge-for-industrial-applications/874115/</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Good day, We are looking to purchase body shapers. Please provide us with availability along with pricing. Thank you.</t>
+          <t>Our company is looking for pressure gauges in different sizes and models. Please share information on connection types, durability, and MOQ for bulk procurement.</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>20 hours ago</t>
+          <t>21 hours ago</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Planning To Buy Charging Pile</t>
+          <t>Planning To Purchase Wedding Tent For Event And Rental Supply</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/planning-to-buy-charging-pile/874011/</t>
+          <t>https://www.tradewheel.com/buyers/planning-to-purchase-wedding-tent-for-event-and/874113/</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Greetings, We are currently sourcing charging piles for electric vehicles. The units must be safe, efficient and compatible with international standards.</t>
+          <t>We are seeking offers for durable wedding tents for event supply. Specifications: Frame: Powder-coated steel or aluminum Cover: PVC / polyester fabric, waterproof Size: Customizable (10m–50m span) Sidewalls: Transparent or plain</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Vietnam</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>20 hours ago</t>
+          <t>21 hours ago</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Immediate Purchase Of Plywood</t>
+          <t>Buying Fishing Reel For Outdoor And Sporting Goods Market</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/immediate-purchase-of-plywood/874010/</t>
+          <t>https://www.tradewheel.com/buyers/buying-fishing-reel-for-outdoor-and-sporting-goods/874112/</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Good day, We are interested in buying plywood. The product must be smooth, warp-free and suitable for interior and exterior applications.</t>
+          <t>Our firm is planning to procure fishing reels for sports and retail markets. Specifications: Type: Spinning / baitcasting Gear ratio: 5.2:1 / 6.2:1 Material: Aluminum body, graphite spool Ball bearings: 8+1</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Djibouti</t>
+          <t>Thailand</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>20 hours ago</t>
+          <t>21 hours ago</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>In search of truck parts</t>
+          <t>Looking To Source Sesame Seed For Food Processing And Trade</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/in-search-of-truck-parts/874009/</t>
+          <t>https://www.tradewheel.com/buyers/looking-to-source-sesame-seed-for-food-processing/874111/</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Hello, We are looking to purchase truck parts. We are interested in high-quality replacement parts with international standards. Kind Regards.</t>
+          <t>We need a trusted source for sesame seed in bulk quantities. Specifications: Type: White / black / hulled Purity: 99.95% min Moisture: ≤6% Packaging: 25kg / 50kg bags</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Tanzania</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1639,29 +1639,29 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Seeking wood pellets mill</t>
+          <t>Need Surgical Instruments For Medical And Hospital Supplies</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/seeking-wood-pellets-mill/874002/</t>
+          <t>https://www.tradewheel.com/buyers/need-surgical-instruments-for-medical-and-hospital-supplies/874110/</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Good day, We are searching for wood pellets mill. We prefer equipment designed with advanced technology for smooth operation. Kind Regards.</t>
+          <t>I’d like to review your range of surgical instruments along with certifications, warranty terms, and MOQ for bulk procurement.</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Thailand</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1671,29 +1671,29 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Seeking high quality power transformers</t>
+          <t>Importing Frozen Chicken For Food Distribution Business</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/seeking-high-quality-power-transformers/874001/</t>
+          <t>https://www.tradewheel.com/buyers/importing-frozen-chicken-for-food-distribution-business/874109/</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Greetings, We are currently seeking power transformers. The transformers must comply with international standards and offer high efficiency.</t>
+          <t>We are open to offers on frozen chicken. Do you supply whole chicken as well as parts (wings, thighs, breasts)?</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1703,29 +1703,29 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>In Search Of Milk Powder</t>
+          <t>Planning To Buy Nylon Fabric For Apparel And Industrial Use</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/in-search-of-milk-powder/874000/</t>
+          <t>https://www.tradewheel.com/buyers/planning-to-buy-nylon-fabric-for-apparel-and/874108/</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Good day, We are interested in buying milk powder. The product must be pure, hygienically processed and meet international standards.</t>
+          <t>Greetings, We are evaluating suppliers of nylon fabric for garment and industrial use. Strength and colorfastness are important to us. Best regards.</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1735,29 +1735,29 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Immediate Purchase Of LED Bulbs</t>
+          <t>Requirement Of Keypad Access Control Systems For Security Projects</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/immediate-purchase-of-led-bulbs/873998/</t>
+          <t>https://www.tradewheel.com/buyers/requirement-of-keypad-access-control-systems-for-security/874107/</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Good day, We are interested in buying LED bulbs. The products should deliver stable performance and low energy consumption. Thank you.</t>
+          <t>I’d like to check your keypad access control solutions with details on installation, power requirements, and bulk order capacity.</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>South Korea</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1767,29 +1767,29 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>In Search Of PVC Tarpaulins</t>
+          <t>Require Small Single Shaft Shredder For Recycling Purposes</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/in-search-of-pvc-tarpaulins/873996/</t>
+          <t>https://www.tradewheel.com/buyers/require-small-single-shaft-shredder-for-recycling-purposes/874103/</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Good day, We are interested in buying PVC tarpaulins. The material should be waterproof, UV-resistant and highly durable. Kind Regards.</t>
+          <t>We are interested in small single shaft shredders for recycling applications. Specifications: Rotor diameter: 200–400 mm Motor power: 15–30 kW Hopper opening: Customizable Application: Plastic, wood, paper</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1799,29 +1799,29 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Need freight forwarding service</t>
+          <t>OEM Request For Household Rice Milling Machine In Custom Models</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/need-freight-forwarding-service/873995/</t>
+          <t>https://www.tradewheel.com/buyers/oem-request-for-household-rice-milling-machine-in/874102/</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Good day, We are currently seeking freight forwarding services. The services should include warehousing, documentation, and insurance support. Thank you.</t>
+          <t>We require rice milling machines suitable for small household use. Specifications: Capacity: 100–200 kg/hr Power: 2.2–3 kW motor Output: Polished white rice Compact and portable design</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Maldives</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1831,29 +1831,29 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>In Search Of Rice Cakes</t>
+          <t>Importing Samsung Mobile Phones For Wholesale Supply</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/in-search-of-rice-cakes/873994/</t>
+          <t>https://www.tradewheel.com/buyers/importing-samsung-mobile-phones-for-wholesale-supply/874101/</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Good day, We are looking to source fresh rice cakes. The cakes must be soft, hygienically prepared and well-packed for long shelf life.</t>
+          <t>I am sourcing new and refurbished Samsung phones with warranty options. Please provide information on quantities, conditions, and export terms.</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Malaysia</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1863,22 +1863,22 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Immediate Purchase Of Agarwood</t>
+          <t>Require Preserved Flowers For Decoration And Gifting</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/immediate-purchase-of-agarwood/873992/</t>
+          <t>https://www.tradewheel.com/buyers/require-preserved-flowers-for-decoration-and-gifting/874099/</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Hello, We are looking to purchase agarwood. The product must be authentic, naturally produced and packed to preserve fragrance.</t>
+          <t>We are open to offers on preserved flowers. Can you supply both single rose domes and mixed flower boxes? Contact me on my email direct.</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
@@ -1895,29 +1895,29 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Bulk order for tomato paste</t>
+          <t>Require Stainless Steel Wire Rope For Industrial Applications</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/bulk-order-for-tomato-paste/873991/</t>
+          <t>https://www.tradewheel.com/buyers/require-stainless-steel-wire-rope-for-industrial-applications/874098/</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Hello, We are sourcing high-quality tomato paste. We prefer paste with natural flavor, no artificial preservatives and high concentration.</t>
+          <t>I am checking for suppliers of stainless steel wire rope. Details on sizes, corrosion resistance, and MOQ would be important for selection.</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Niger</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1927,29 +1927,29 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Seeking sheet metal fabrication parts</t>
+          <t>Importing Solar Lights With Certified Quality</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/seeking-sheet-metal-fabrication-parts/873989/</t>
+          <t>https://www.tradewheel.com/buyers/importing-solar-lights-with-certified-quality/874096/</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Greetings, We are looking to purchase sheet metal fabrication parts. The parts must comply with international standards for industrial applications. Thank you.</t>
+          <t>We are open to offers on solar lights. Can you supply wall-mounted and pathway types?</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1959,29 +1959,29 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Buying diode laser hair removal machines</t>
+          <t>Importing Gift Paper With Custom Prints</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/buying-diode-laser-hair-removal-machines/873988/</t>
+          <t>https://www.tradewheel.com/buyers/importing-gift-paper-with-custom-prints/874095/</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Dear Sir, I am interested in buying diode laser hair removal machines. The equipment should feature advanced technology, safe operation and long-lasting performance.</t>
+          <t>Hey, our company requires a variety of gift papers for upcoming seasonal sales. Please provide details on patterns, color options, and MOQ for bulk orders.</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1991,29 +1991,29 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Seeking Slag Demolition Machines</t>
+          <t>Planning To Buy Grow Light For Greenhouse Projects</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/seeking-slag-demolition-machines/873987/</t>
+          <t>https://www.tradewheel.com/buyers/planning-to-buy-grow-light-for-greenhouse-projects/874094/</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Good day, We are interested in buying slag demolition machines. The machines must be efficient, and capable of handling heavy-duty demolition tasks. Thank you.</t>
+          <t>We require grow lights for indoor farming and greenhouse use. Specifications: Spectrum: Full-spectrum 380–780 nm Lifespan: ≥50,000 hours Power: 100–600 W options Cooling system: Built-in fan or passive</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2023,150 +2023,150 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Need used construction hoists</t>
+          <t>Bulk Order For Hydraulic Valve For Upcoming Projects</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/need-used-construction-hoists/873986/</t>
+          <t>https://www.tradewheel.com/buyers/bulk-order-for-hydraulic-valve-for-upcoming-projects/874093/</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Hello, We are currently sourcing used construction hoists. We prefer hoists suitable for high-rise building projects with easy installation features. Kind Regards.</t>
+          <t>Our company requires hydraulic valves, flow 80L/min, working pressure up to 315 bar, cast iron body, long service life.</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>23 hours ago</t>
+          <t>21 hours ago</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Quotation For Dry Fruits</t>
+          <t>OEM Request For Pets Toys With Private Label Branding</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/quotation-for-dry-fruits/873965/</t>
+          <t>https://www.tradewheel.com/buyers/oem-request-for-pets-toys-with-private-label/874092/</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Hello, I am interested in dry fruits. can you please send available items list provide me quality samples Thanks</t>
+          <t>Good day. This is Michelle. I am sourcing different varieties of pet toys for wholesale and retail. Specifications: Material: Non-toxic rubber or plush Sizes: Small, medium, large Washable and chew-resistant Packaging: Individual or bulk...</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>21 hours ago</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Pulp tray for mobile car charger packaging</t>
+          <t>Planning To Buy Tofu Cat Litter For Wholesale Distribution</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/pulp-tray-for-mobile-car-charger-packaging/874034/</t>
+          <t>https://www.tradewheel.com/buyers/planning-to-buy-tofu-cat-litter-for-wholesale/874091/</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>We are making car charger for mobile and for the packaging we have a requirement of pulp tray to put inside the box.</t>
+          <t>Our company requires tofu cat litter, 2.5–3mm granules, quick clumping, flushable, low dust, packed in 6L and 10L OEM bags.</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Bangladesh</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>21 hours ago</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Ready to place order for Vape</t>
+          <t>Require Micro OLED Display For Electronic Devices</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/ready-to-place-order-for-vape/873920/</t>
+          <t>https://www.tradewheel.com/buyers/require-micro-oled-display-for-electronic-devices/874090/</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Our company is ready to place a confirmed order for vapes. Reliable manufacturers and distributors are invited to share offers.</t>
+          <t>I am looking to source micro OLED displays for electronic devices. Specifications: Resolution: 1280×1024 or higher Brightness: 1000–2000 cd/m² Contrast ratio: ≥10,000:1 Operating temperature: –20°C to 70°C</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>21 hours ago</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Immediate purchase – Medical Elastic Band</t>
+          <t>Planning To Buy Solar Panel Bracket For Solar System Setups</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/immediate-purchase-medical-elastic-band/873921/</t>
+          <t>https://www.tradewheel.com/buyers/planning-to-buy-solar-panel-bracket-for-solar/874089/</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>We are looking for an immediate purchase of medical elastic bands. Suppliers offering certified quality products may contact us quickly.</t>
+          <t>We require solar mounting brackets made of aluminum alloy, anodized finish, wind load resistance up to 60m/s, suitable for 400W–600W panels.</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
@@ -2178,155 +2178,155 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>21 hours ago</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Urgent requirement of Vape</t>
+          <t>Planning to Buy Used Clothes for Retail Distribution</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/urgent-requirement-of-vape/873922/</t>
+          <t>https://www.tradewheel.com/buyers/planning-to-buy-used-clothes-for-retail-distribution/874088/</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>We urgently require high-quality vapes for immediate procurement. Genuine suppliers with competitive pricing are requested to connect.</t>
+          <t>We are interested in bulk supply of second-hand clothes for export and wholesale distribution. Specifications: Grade: A/B sorted Bale weight: 45–100 kg Mixed categories: shirts, pants, jackets No torn or stained items</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>22 hours ago</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Export Buyer Needs Rice – Long-Term Supply Contract</t>
+          <t>Planning to buy Fillers for beauty treatments</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/export-buyer-needs-rice-long-term-supply-contract/873923/</t>
+          <t>https://www.tradewheel.com/buyers/planning-to-buy-fillers-for-beauty-treatments/874082/</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>An export buyer needs Rice under a long-term supply contract. Global suppliers with competitive terms are invited to discuss.</t>
+          <t>We require aesthetic fillers for cosmetic and dermatology use. Specifications: Viscosity: Medium to high Shelf life: ≥24 months Needle gauge: 27–30G Storage: 2–25°C, protected from light</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>22 hours ago</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Sourcing copper wire scraps for US Wholesale Buyers</t>
+          <t>Planning to buy EV Charger for commercial and residential use</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/sourcing-copper-wire-scraps-for-us-wholesale-buyers/873924/</t>
+          <t>https://www.tradewheel.com/buyers/planning-to-buy-ev-charger-for-commercial-and/874081/</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>We are sourcing copper wire scraps for US wholesale buyers. Trusted suppliers with export licenses should contact us directly.</t>
+          <t>We are looking for EV chargers for electric vehicle infrastructure projects. Specifications: Connector type: Type 2 or CCS Operating temperature: –20°C to 50°C Cable length: 4–6 m Enclosure rating: IP65</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>United Arab Emirates</t>
+          <t>Tanzania</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>22 hours ago</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Buying Zinc Ingot for resale</t>
+          <t>Planning to Buy Best Quality Carpets</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/buying-zinc-ingot-for-resale/873926/</t>
+          <t>https://www.tradewheel.com/buyers/planning-to-buy-best-quality-carpets/874080/</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>We are buying Zinc Ingots for resale in global markets. Suppliers with bulk stock may send offers promptly.</t>
+          <t>Hi, Its Obby and For future stocking, I’d like to review carpet collection by this platform, including pricing and available sizes. Thank you in advance.</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>22 hours ago</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Require Shoe Tree Shaper Stretcher for wholesale</t>
+          <t>Planning to buy Baby Feeding Bottle for daily use products</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/require-shoe-tree-shaper-stretcher-for-wholesale/873927/</t>
+          <t>https://www.tradewheel.com/buyers/planning-to-buy-baby-feeding-bottle-for-daily/874079/</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>We require Shoe Tree Shaper Stretchers for wholesale orders. Manufacturers and exporters are invited to provide product details.</t>
+          <t>I am sourcing baby feeding bottles for retail and distribution. Specifications: Nipple: Silicone with anti-colic vent Bottle type: Wide-neck or standard Temperature resistance: –20°C to 120°C Pack: Single or multipack options</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
@@ -2338,91 +2338,91 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>22 hours ago</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Searching for suppliers of Coffee Beans</t>
+          <t>Importing Graphite Electrode for manufacturing purposes</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/searching-for-suppliers-of-coffee-beans/873930/</t>
+          <t>https://www.tradewheel.com/buyers/importing-graphite-electrode-for-manufacturing-purposes/874078/</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>We are searching for reliable suppliers of Coffee Beans. Competitive pricing and consistent quality will ensure long-term business.</t>
+          <t>Greetings, We are seeking suppliers of graphite electrodes for steelmaking applications. High conductivity and consistent quality are priorities. Best regards.</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Thailand</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>22 hours ago</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Ready to buy Coffee</t>
+          <t>Importing Feed Pallet Machine for feed processing</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/ready-to-buy-coffee/873932/</t>
+          <t>https://www.tradewheel.com/buyers/importing-feed-pallet-machine-for-feed-processing/874077/</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>We are ready to buy premium Coffee varieties. Exporters with international supply capability please contact us soon.</t>
+          <t>I am collecting details on feed pallet machines for livestock feed production. Specifications: Pellet length: 10–25 mm Motor type: Electric or diesel Operating pressure: 15–20 MPa Feed capacity per hour: 500–1500 kg</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Gambia</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>22 hours ago</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Want to source Chicken Egg</t>
+          <t>Importing Steel Wire Rope for fabrication works</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/want-to-source-chicken-egg/873933/</t>
+          <t>https://www.tradewheel.com/buyers/importing-steel-wire-rope-for-fabrication-works/874076/</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>We want to source fresh Chicken Eggs for distribution. Suppliers with export-grade quality are invited to share offers.</t>
+          <t>We are seeking steel wire ropes for industrial and lifting applications. Specifications: Construction: 6×19 or 6×37 strands Breaking load: 3–20 tons Coating: Galvanized or PVC coated Rope flexibility class: 15–35</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
@@ -2434,194 +2434,194 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>22 hours ago</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Purchasing Copper Wire Scrap in bulk</t>
+          <t>Looking For Crude Oil</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/purchasing-copper-wire-scrap-in-bulk/873934/</t>
+          <t>https://www.tradewheel.com/buyers/looking-for-crude-oil/874075/</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>We are purchasing Copper Wire Scrap in bulk quantities. Suppliers offering consistent quality and best rates are requested to quote.</t>
+          <t>Hi, I am looking for crude oil in Kenya. I need 10 tons. Please send me your best price. Thank you.</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Uzbekistan</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>22 hours ago</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Would like to import Lead Battery Scrap</t>
+          <t>Importing Umbrella for wholesale distribution</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/would-like-to-import-lead-battery-scrap/873936/</t>
+          <t>https://www.tradewheel.com/buyers/importing-umbrella-for-wholesale-distribution/874072/</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>We would like to import Lead Battery Scrap for recycling purposes. Global suppliers with steady availability are welcome to quote.</t>
+          <t>I am looking to procure umbrellas for retail distribution with durable and stylish designs. Specifications: Frame: Steel or fiberglass Canopy diameter: 100–120cm Auto open/close feature Water-repellent fabric</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>22 hours ago</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Would like to buy Coco Peat</t>
+          <t>Require Waterproofing Membrane for construction projects</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/would-like-to-buy-coco-peat/873937/</t>
+          <t>https://www.tradewheel.com/buyers/require-waterproofing-membrane-for-construction-projects/874071/</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>We would like to buy Coco Peat in bulk for horticultural use. Serious suppliers with export capacity may contact us.</t>
+          <t>We are sourcing waterproofing membranes for construction projects and industrial applications. Specifications: Thickness: 1.2–2mm Material: Polymer-modified bitumen Roll length: 10–20m UV resistant</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>22 hours ago</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Interested in Gold</t>
+          <t>Cassava</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/interested-in-gold/873939/</t>
+          <t>https://www.tradewheel.com/buyers/cassava/874068/</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>We are interested in purchasing Gold for international trade. Authentic and certified suppliers please reach out with offers.</t>
+          <t>Product: Cassava chips Requirement: I need 5000 tons</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Kenya</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>23 hours ago</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Looking for continuous supply of Cooking Oil</t>
+          <t>Looking For Skin Care Products</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/looking-for-continuous-supply-of-cooking-oil/873942/</t>
+          <t>https://www.tradewheel.com/buyers/looking-for-skin-care-products/874058/</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>We are looking for a continuous supply of Cooking Oil for distribution. Trusted suppliers with competitive offers are encouraged to connect.</t>
+          <t>Hi We are looking for Skin Care Products in Kenya We would like to know the prices of Creams, Lotions, Petroleum Jelly etc 1000pcs each Please write back to us Thank you</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Nepal</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>23 hours ago</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Rush order for Pistachio – Contact ASAP</t>
+          <t>Customizes Motorcycle springs</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/rush-order-for-pistachio-contact-asap/873946/</t>
+          <t>https://www.tradewheel.com/buyers/customizes-motorcycle-springs/874050/</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>We have a rush requirement for premium quality Pistachio. Export-ready suppliers kindly contact us for quick processing.</t>
+          <t>Check out the attached if you can provide us high strength motorcycle springs</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2631,29 +2631,29 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Planning bulk order of EN590</t>
+          <t>Immediate Purchase Of Bicycles</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/planning-bulk-order-of-en590/873947/</t>
+          <t>https://www.tradewheel.com/buyers/immediate-purchase-of-bicycles/874022/</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Our company is planning a bulk order of EN590 Diesel Fuel. Long-term contracts will be considered with verified suppliers.</t>
+          <t>Greetings, We are sourcing high-quality bicycles for distribution. The bicycles must be durable and suitable for both adults and children. Thank you.</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2663,22 +2663,22 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Ready to place order for Vapes</t>
+          <t>Buying custom melamine cabinets</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/ready-to-place-order-for-vapes/873948/</t>
+          <t>https://www.tradewheel.com/buyers/buying-custom-melamine-cabinets/874021/</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>We are ready to place a confirmed order for branded Vapes. Genuine suppliers are invited to provide their best quotations.</t>
+          <t>Good day, We are interested in buying custom melamine cabinets. The cabinets must be durable, space-efficient and available in different designs. Thank you.</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
@@ -2695,22 +2695,22 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Immediate purchase – Coconuts</t>
+          <t>Need golden ear fungus mushroom</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/immediate-purchase-coconuts/873950/</t>
+          <t>https://www.tradewheel.com/buyers/need-golden-ear-fungus-mushroom/874018/</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>We are ready for an immediate purchase of high-quality coconuts. Suppliers with fresh stock kindly share offers at the earliest.</t>
+          <t>Hi there, We are interested in buying golden ear fungus mushrooms. The mushrooms should be sun-dried, naturally processed and meet quality standards.</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
@@ -2727,29 +2727,29 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Urgent requirement of Aluminium Scrap</t>
+          <t>Immediate purchase of agriculture drones</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/urgent-requirement-of-aluminium-scrap/873952/</t>
+          <t>https://www.tradewheel.com/buyers/immediate-purchase-of-agriculture-drones/874017/</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>We are looking for reliable suppliers to urgently provide Aluminium Scrap. Immediate deals with competitive pricing are highly preferred.</t>
+          <t>Greetings, We are currently sourcing agriculture drones. We are particularly looking for drones which must be capable of spraying, mapping &amp; monitoring crops efficiently.</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Uzbekistan</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2759,29 +2759,29 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Looking for Digital Signage and Displays</t>
+          <t>Planning To Buy Canned Pumps</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/looking-for-digital-signage-and-displays/873828/</t>
+          <t>https://www.tradewheel.com/buyers/planning-to-buy-canned-pumps/874015/</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Hi, We are looking for Digital Signage and Displays standing 55 inch and 65 inches 500 units, 250 units each</t>
+          <t>Hi there, We are currently sourcing canned pumps. The pumps must be durable, efficient, and designed for handling corrosive fluids. Thank you.</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2791,29 +2791,29 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Looking for Eggs</t>
+          <t>In Search Of Melamine Boards</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/looking-for-eggs/873824/</t>
+          <t>https://www.tradewheel.com/buyers/in-search-of-melamine-boards/874013/</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Hello, I need Eggs, MOQ is 10 containers 40ft</t>
+          <t>Hello, We are looking to purchase melamine boards. The boards must be strong, smooth and resistant to scratches and moisture. Thank you.</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2823,29 +2823,29 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Looking for Minerals</t>
+          <t>In search of body shapers</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/looking-for-minerals/873822/</t>
+          <t>https://www.tradewheel.com/buyers/in-search-of-body-shapers/874012/</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Hello 👋. Yes. we need lead-zinc ore high quality, MOQ is 20TON</t>
+          <t>Good day, We are looking to purchase body shapers. Please provide us with availability along with pricing. Thank you.</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>China</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2855,29 +2855,29 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Searching for VAPES</t>
+          <t>Planning To Buy Charging Pile</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/searching-for-vapes/873820/</t>
+          <t>https://www.tradewheel.com/buyers/planning-to-buy-charging-pile/874011/</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Hello, I need Vapes, Moq is 1pc as a sample</t>
+          <t>Greetings, We are currently sourcing charging piles for electric vehicles. The units must be safe, efficient and compatible with international standards.</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Iran</t>
+          <t>Vietnam</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2887,29 +2887,29 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Looking for Carpets</t>
+          <t>Immediate Purchase Of Plywood</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/looking-for-carpets/873819/</t>
+          <t>https://www.tradewheel.com/buyers/immediate-purchase-of-plywood/874010/</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Hello, I need Carpets, MOQ is 10 CONTAINERS</t>
+          <t>Good day, We are interested in buying plywood. The product must be smooth, warp-free and suitable for interior and exterior applications.</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Djibouti</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2919,22 +2919,22 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Planning to buy Skin Care items for retail and wholesale</t>
+          <t>In search of truck parts</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/planning-to-buy-skin-care-items-for-retail/873812/</t>
+          <t>https://www.tradewheel.com/buyers/in-search-of-truck-parts/874009/</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Our company requires anti-aging skin serum in 30ml frosted glass bottles, formulated with peptides and vitamin C, suitable for sensitive skin.</t>
+          <t>Hello, We are looking to purchase truck parts. We are interested in high-quality replacement parts with international standards. Kind Regards.</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
@@ -2951,29 +2951,29 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Planning to buy Liquid Silicone Rubber for manufacturing projects</t>
+          <t>Seeking wood pellets mill</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/planning-to-buy-liquid-silicone-rubber-for-manufacturing/873811/</t>
+          <t>https://www.tradewheel.com/buyers/seeking-wood-pellets-mill/874002/</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Our company is interested in liquid silicone rubber with high transparency, hardness 20–60 Shore A, supplied in sealed 20kg pails.</t>
+          <t>Good day, We are searching for wood pellets mill. We prefer equipment designed with advanced technology for smooth operation. Kind Regards.</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2983,29 +2983,29 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Need Bagasse Food Container for eco-friendly packaging supply</t>
+          <t>Seeking high quality power transformers</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/need-bagasse-food-container-for-eco-friendly-packaging-supply/873809/</t>
+          <t>https://www.tradewheel.com/buyers/seeking-high-quality-power-transformers/874001/</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Our firm requires bagasse food containers in 500ml and 1000ml sizes, natural color, with secure lid options. Delivery to India.</t>
+          <t>Greetings, We are currently seeking power transformers. The transformers must comply with international standards and offer high efficiency.</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -3015,29 +3015,29 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Planning to buy Polyacrylamide for chemical applications</t>
+          <t>In Search Of Milk Powder</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/planning-to-buy-polyacrylamide-for-chemical-applications/873808/</t>
+          <t>https://www.tradewheel.com/buyers/in-search-of-milk-powder/874000/</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>I’m seeking polyacrylamide for use in water treatment applications. Kindly provide information on ionic types, viscosity, and packaging formats.</t>
+          <t>Good day, We are interested in buying milk powder. The product must be pure, hygienically processed and meet international standards.</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Marshall Islands</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -3047,29 +3047,29 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Bulk Order for Brake Pad for automotive workshops</t>
+          <t>Immediate Purchase Of LED Bulbs</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/bulk-order-for-brake-pad-for-automotive-workshops/873807/</t>
+          <t>https://www.tradewheel.com/buyers/immediate-purchase-of-led-bulbs/873998/</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>We are planning procurement of brake pads for automotive aftermarket supply. Kindly share information on available models, material composition, and compatibility with different vehicles. Durability, heat resistance, and safety certification are impo...</t>
+          <t>Good day, We are interested in buying LED bulbs. The products should deliver stable performance and low energy consumption. Thank you.</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -3079,29 +3079,29 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Planning to buy Tesla Spare Parts for electric vehicle maintenance</t>
+          <t>In Search Of PVC Tarpaulins</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/planning-to-buy-tesla-spare-parts-for-electric/873806/</t>
+          <t>https://www.tradewheel.com/buyers/in-search-of-pvc-tarpaulins/873996/</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Our requirement includes Tesla spare parts such as control arms, suspension kits, and charging cables, suitable for Model S and Model X.</t>
+          <t>Good day, We are interested in buying PVC tarpaulins. The material should be waterproof, UV-resistant and highly durable. Kind Regards.</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>China</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3111,29 +3111,29 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Bulk Order for Bicycle in assorted models</t>
+          <t>Need freight forwarding service</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/bulk-order-for-bicycle-in-assorted-models/873805/</t>
+          <t>https://www.tradewheel.com/buyers/need-freight-forwarding-service/873995/</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Our requirement is for bicycles with 27.5 inch alloy frames, front suspension, disc brakes, and 21-speed Shimano gear system.</t>
+          <t>Good day, We are currently seeking freight forwarding services. The services should include warehousing, documentation, and insurance support. Thank you.</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Cambodia</t>
+          <t>Maldives</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3143,29 +3143,29 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>OEM Request for Drone design and production</t>
+          <t>In Search Of Rice Cakes</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/oem-request-for-drone-design-and-production/873804/</t>
+          <t>https://www.tradewheel.com/buyers/in-search-of-rice-cakes/873994/</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>We require drones with flight time of 30 minutes, 5km control range, and foldable design. Certifications, warranty options, and consistent supply capacity will also be important in selecting a supplier for long-term collaboration.</t>
+          <t>Good day, We are looking to source fresh rice cakes. The cakes must be soft, hygienically prepared and well-packed for long shelf life.</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3175,29 +3175,29 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Require PC Lens for optical applications</t>
+          <t>Immediate Purchase Of Agarwood</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/require-pc-lens-for-optical-applications/873803/</t>
+          <t>https://www.tradewheel.com/buyers/immediate-purchase-of-agarwood/873992/</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>I’m reviewing suppliers of PC lenses where both precision and quality consistency are important. Please share your manufacturing details.</t>
+          <t>Hello, We are looking to purchase agarwood. The product must be authentic, naturally produced and packed to preserve fragrance.</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Iran</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3207,29 +3207,29 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Need Copper Parts for electrical and industrial use</t>
+          <t>Bulk order for tomato paste</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/need-copper-parts-for-electrical-and-industrial-use/873802/</t>
+          <t>https://www.tradewheel.com/buyers/bulk-order-for-tomato-paste/873991/</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>We need copper parts with 99.9% purity, CNC machined, tolerance ±0.05mm. We are focused on long-term supply arrangements, so information about pricing, export standards, and lead times will be valuable in finalizing suppliers.</t>
+          <t>Hello, We are sourcing high-quality tomato paste. We prefer paste with natural flavor, no artificial preservatives and high concentration.</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Niger</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3239,29 +3239,29 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>OEM Request for Custom Melamine Cabinet manufacturing</t>
+          <t>Seeking sheet metal fabrication parts</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/oem-request-for-custom-melamine-cabinet-manufacturing/873801/</t>
+          <t>https://www.tradewheel.com/buyers/seeking-sheet-metal-fabrication-parts/873989/</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Our requirement is melamine cabinets in white matte finish, thickness 18mm, with soft-close hinges. Do you provide customized sizes and finishes?</t>
+          <t>Greetings, We are looking to purchase sheet metal fabrication parts. The parts must comply with international standards for industrial applications. Thank you.</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -3271,29 +3271,29 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Bulk Order for Wood Pellets with consistent quality</t>
+          <t>Buying diode laser hair removal machines</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/bulk-order-for-wood-pellets-with-consistent-quality/873796/</t>
+          <t>https://www.tradewheel.com/buyers/buying-diode-laser-hair-removal-machines/873988/</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>We are reviewing wood pellet supply. Can you provide both ENplus certified and industrial-grade types?</t>
+          <t>Dear Sir, I am interested in buying diode laser hair removal machines. The equipment should feature advanced technology, safe operation and long-lasting performance.</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Azerbaijan</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3303,29 +3303,29 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Importing NE556 IC Chip with stable performance</t>
+          <t>Seeking Slag Demolition Machines</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/importing-ne556-ic-chip-with-stable-performance/873795/</t>
+          <t>https://www.tradewheel.com/buyers/seeking-slag-demolition-machines/873987/</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>We are collecting information on NE556 chips. Can you supply both DIP and SMD package versions? Our focus will be on authenticity, stable quality, and long-term cooperation with reliable suppliers. Information on lead times and MOQ will also be appre...</t>
+          <t>Good day, We are interested in buying slag demolition machines. The machines must be efficient, and capable of handling heavy-duty demolition tasks. Thank you.</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -3335,29 +3335,29 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Planning to buy Dog Chews for retail supply chain</t>
+          <t>Need used construction hoists</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/planning-to-buy-dog-chews-for-retail-supply/873794/</t>
+          <t>https://www.tradewheel.com/buyers/need-used-construction-hoists/873986/</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Our requirement is dog chews made from 100% natural beef hide, length 12–15cm, vacuum-packed.</t>
+          <t>Hello, We are currently sourcing used construction hoists. We prefer hoists suitable for high-rise building projects with easy installation features. Kind Regards.</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -3367,29 +3367,29 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>OEM Request for Activated Carbon in custom grades</t>
+          <t>Quotation For Dry Fruits</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/oem-request-for-activated-carbon-in-custom-grades/873793/</t>
+          <t>https://www.tradewheel.com/buyers/quotation-for-dry-fruits/873965/</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>We need activated carbon with iodine value 900–1100 mg/g, moisture below 5%, packed in 25kg bags. Information on iodine value, mesh size, and packaging would be useful.</t>
+          <t>Hello, I am interested in dry fruits. can you please send available items list provide me quality samples Thanks</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -3399,29 +3399,29 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Planning to buy Stainless Steel Coil and Pipes for fabrication work</t>
+          <t>Pulp tray for mobile car charger packaging</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/planning-to-buy-stainless-steel-coil-and-pipes/873791/</t>
+          <t>https://www.tradewheel.com/buyers/pulp-tray-for-mobile-car-charger-packaging/874034/</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>We are collecting details on stainless steel coils and pipes. Do you supply both 304 and 316 grades?</t>
+          <t>We are making car charger for mobile and for the packaging we have a requirement of pulp tray to put inside the box.</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Belarus</t>
+          <t>Bangladesh</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -3431,29 +3431,29 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Planning to buy Dump Truck with high load capacity</t>
+          <t>Ready to place order for Vape</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/planning-to-buy-dump-truck-with-high-load/873790/</t>
+          <t>https://www.tradewheel.com/buyers/ready-to-place-order-for-vape/873920/</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Hi there, Is there any supplier offering dump trucks for heavy construction and mining use? Please share details about available models, load capacities, and after-sales support. Consistent performance and reliable delivery will influence our purchas...</t>
+          <t>Our company is ready to place a confirmed order for vapes. Reliable manufacturers and distributors are invited to share offers.</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -3463,29 +3463,29 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Need Oil Pump for truck spare parts supply</t>
+          <t>Immediate purchase – Medical Elastic Band</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/need-oil-pump-for-truck-spare-parts-supply/873789/</t>
+          <t>https://www.tradewheel.com/buyers/immediate-purchase-medical-elastic-band/873921/</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Our requirement is oil pumps made of cast iron, pressure range 0.5–0.8MPa, designed for diesel truck engines. Delivery to USA.</t>
+          <t>We are looking for an immediate purchase of medical elastic bands. Suppliers offering certified quality products may contact us quickly.</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -3495,29 +3495,29 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Importing Used Tower Crane for rental expansion</t>
+          <t>Urgent requirement of Vape</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/importing-used-tower-crane-for-rental-expansion/873788/</t>
+          <t>https://www.tradewheel.com/buyers/urgent-requirement-of-vape/873922/</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>We are exploring suppliers of used tower cranes for construction projects. Please mention available brands, year of manufacture, lifting capacity, and current condition. Reliable documentation, competitive pricing, and safe export handling are essent...</t>
+          <t>We urgently require high-quality vapes for immediate procurement. Genuine suppliers with competitive pricing are requested to connect.</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -3527,29 +3527,29 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>OEM Request for Lithium-Ion Battery customization</t>
+          <t>Export Buyer Needs Rice – Long-Term Supply Contract</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/oem-request-for-lithium-ion-battery-customization/873787/</t>
+          <t>https://www.tradewheel.com/buyers/export-buyer-needs-rice-long-term-supply-contract/873923/</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>We are reviewing suppliers for lithium-ion batteries in various capacities. Please share information on performance, cycle life, and packaging standards. Trustworthy quality and stable delivery schedules will be key factors in our choice.</t>
+          <t>An export buyer needs Rice under a long-term supply contract. Global suppliers with competitive terms are invited to discuss.</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -3559,29 +3559,29 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Require Oil Immersed Transformer for power projects</t>
+          <t>Sourcing copper wire scraps for US Wholesale Buyers</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/require-oil-immersed-transformer-for-power-projects/873786/</t>
+          <t>https://www.tradewheel.com/buyers/sourcing-copper-wire-scraps-for-us-wholesale-buyers/873924/</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Hi all. Is there any supplier of oil immersed transformers for industrial and utility use? Kindly share available ratings, cooling systems, and compliance certifications. A proven track record with dependable supply will be valued.</t>
+          <t>We are sourcing copper wire scraps for US wholesale buyers. Trusted suppliers with export licenses should contact us directly.</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Bahrain</t>
+          <t>United Arab Emirates</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -3591,29 +3591,29 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Require Scaffolding for construction projects</t>
+          <t>Buying Zinc Ingot for resale</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/require-scaffolding-for-construction-projects/873785/</t>
+          <t>https://www.tradewheel.com/buyers/buying-zinc-ingot-for-resale/873926/</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Our requirement is scaffolding with hot-dip galvanized steel, 48.3mm diameter, and load capacity of 200kN.</t>
+          <t>We are buying Zinc Ingots for resale in global markets. Suppliers with bulk stock may send offers promptly.</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3623,29 +3623,29 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Need Family Indoor Park equipment and design</t>
+          <t>Require Shoe Tree Shaper Stretcher for wholesale</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/need-family-indoor-park-equipment-and-design/873784/</t>
+          <t>https://www.tradewheel.com/buyers/require-shoe-tree-shaper-stretcher-for-wholesale/873927/</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>We are considering an indoor park setup with trampoline zone, climbing wall, and soft play area covering 800–1000 sqm.</t>
+          <t>We require Shoe Tree Shaper Stretchers for wholesale orders. Manufacturers and exporters are invited to provide product details.</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3655,29 +3655,29 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Planning to buy Mother Board for bulk assembly</t>
+          <t>Searching for suppliers of Coffee Beans</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/planning-to-buy-mother-board-for-bulk-assembly/873783/</t>
+          <t>https://www.tradewheel.com/buyers/searching-for-suppliers-of-coffee-beans/873930/</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Our company needs ATX mother boards with DDR5 support, PCIe 5.0 slots, and multiple M.2 interfaces. Delivery to Portugal.</t>
+          <t>We are searching for reliable suppliers of Coffee Beans. Competitive pricing and consistent quality will ensure long-term business.</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3687,29 +3687,29 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Need Membrane Switches for electronic equipment</t>
+          <t>Ready to buy Coffee</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/need-membrane-switches-for-electronic-equipment/873782/</t>
+          <t>https://www.tradewheel.com/buyers/ready-to-buy-coffee/873932/</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>We require polyester-based membrane switches with silver conductive ink, 0.1mm thickness, and waterproof sealing.</t>
+          <t>We are ready to buy premium Coffee varieties. Exporters with international supply capability please contact us soon.</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Gambia</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -3719,29 +3719,29 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Planning to buy EV Battery for commercial projects</t>
+          <t>Want to source Chicken Egg</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/planning-to-buy-ev-battery-for-commercial-projects/873781/</t>
+          <t>https://www.tradewheel.com/buyers/want-to-source-chicken-egg/873933/</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Our requirement is EV batteries with 60kWh capacity, fast-charging compatibility, and a minimum cycle life of 2,500 cycles.</t>
+          <t>We want to source fresh Chicken Eggs for distribution. Suppliers with export-grade quality are invited to share offers.</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -3751,29 +3751,29 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Require Rabbit Tail Grass for decorative purposes</t>
+          <t>Purchasing Copper Wire Scrap in bulk</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/require-rabbit-tail-grass-for-decorative-purposes/873778/</t>
+          <t>https://www.tradewheel.com/buyers/purchasing-copper-wire-scrap-in-bulk/873934/</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>We are sourcing rabbit tail grass for decorative and floral arrangement purposes. Please share details on available colors, stem lengths, and packaging options. Consistent quality, natural look, and bulk supply capacity will be important factors for...</t>
+          <t>We are purchasing Copper Wire Scrap in bulk quantities. Suppliers offering consistent quality and best rates are requested to quote.</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Uzbekistan</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -3783,29 +3783,29 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Planning to buy Paper Boxes for commercial supply</t>
+          <t>Would like to import Lead Battery Scrap</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/planning-to-buy-paper-boxes-for-commercial-supply/873777/</t>
+          <t>https://www.tradewheel.com/buyers/would-like-to-import-lead-battery-scrap/873936/</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>I am checking availability of paper boxes suitable for wholesale commercial use. Please mention the types you manufacture, finishing options, and if there are variations for food, cosmetics, or industrial packaging. Consistency, cost efficiency, and...</t>
+          <t>We would like to import Lead Battery Scrap for recycling purposes. Global suppliers with steady availability are welcome to quote.</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Vietnam</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -3815,29 +3815,29 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Planning to buy Acne Patches for beauty retail stock</t>
+          <t>Would like to buy Coco Peat</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/planning-to-buy-acne-patches-for-beauty-retail/873776/</t>
+          <t>https://www.tradewheel.com/buyers/would-like-to-buy-coco-peat/873937/</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>We are open to offers on acne patches. Can you confirm if you supply hydrocolloid patches in different shapes? We would also like to know if private labeling or customization options are available for international markets.</t>
+          <t>We would like to buy Coco Peat in bulk for horticultural use. Serious suppliers with export capacity may contact us.</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -3847,29 +3847,29 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Need Polymer Waterproof Coating for industrial applications</t>
+          <t>Interested in Gold</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/need-polymer-waterproof-coating-for-industrial-applications/873775/</t>
+          <t>https://www.tradewheel.com/buyers/interested-in-gold/873939/</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Our firm requires polymer waterproof coating suitable for concrete surfaces, elastomeric type, supplied in 20kg drums. Best regards, Wessam.</t>
+          <t>We are interested in purchasing Gold for international trade. Authentic and certified suppliers please reach out with offers.</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -3879,29 +3879,29 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Bulk Order for Waterproof Material for housing projects</t>
+          <t>Looking for continuous supply of Cooking Oil</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/bulk-order-for-waterproof-material-for-housing-projects/873773/</t>
+          <t>https://www.tradewheel.com/buyers/looking-for-continuous-supply-of-cooking-oil/873942/</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Good day sellers, Is there anyone offering waterproofing materials in bulk for building projects? Please share the different varieties, thickness options, and packing details you can provide. Reliable quality and steady supply terms will guide our co...</t>
+          <t>We are looking for a continuous supply of Cooking Oil for distribution. Trusted suppliers with competitive offers are encouraged to connect.</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -3911,22 +3911,22 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Require Safety Harness for worker protection needs</t>
+          <t>Rush order for Pistachio – Contact ASAP</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/require-safety-harness-for-worker-protection-needs/873772/</t>
+          <t>https://www.tradewheel.com/buyers/rush-order-for-pistachio-contact-asap/873946/</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>We are open to offers on safety harnesses. Can you share if you supply both single-point and full-body harness types?</t>
+          <t>We have a rush requirement for premium quality Pistachio. Export-ready suppliers kindly contact us for quick processing.</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
@@ -3943,29 +3943,29 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>OEM Request for Paper Bags with brand printing</t>
+          <t>Planning bulk order of EN590</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/oem-request-for-paper-bags-with-brand-printing/873771/</t>
+          <t>https://www.tradewheel.com/buyers/planning-bulk-order-of-en590/873947/</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Our company is seeking paper bags with twisted handles, 100gsm kraft paper, in sizes 25x20x10cm. Suppliers offering both plain and branded packaging solutions will be preferred for long-term cooperation.</t>
+          <t>Our company is planning a bulk order of EN590 Diesel Fuel. Long-term contracts will be considered with verified suppliers.</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -3975,29 +3975,29 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Require Micro LED Display for digital signage projects</t>
+          <t>Ready to place order for Vapes</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/require-micro-led-display-for-digital-signage-projects/873769/</t>
+          <t>https://www.tradewheel.com/buyers/ready-to-place-order-for-vapes/873948/</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Greetings, We are evaluating suppliers for micro LED displays to support our electronics projects. Consistent quality and stable supply are highly important. Best regards.</t>
+          <t>We are ready to place a confirmed order for branded Vapes. Genuine suppliers are invited to provide their best quotations.</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Iran</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -4007,29 +4007,29 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Planning to buy Fresh Lemon for bulk kitchen supply</t>
+          <t>Immediate purchase – Coconuts</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/planning-to-buy-fresh-lemon-for-bulk-kitchen/873768/</t>
+          <t>https://www.tradewheel.com/buyers/immediate-purchase-coconuts/873950/</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Our company requires fresh lemons, medium size, bright yellow, packed in 15kg cartons for shipping. Delivery to Iran</t>
+          <t>We are ready for an immediate purchase of high-quality coconuts. Suppliers with fresh stock kindly share offers at the earliest.</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Zambia</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -4039,29 +4039,29 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>OEM Request for Tie Down in custom designs</t>
+          <t>Urgent requirement of Aluminium Scrap</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/oem-request-for-tie-down-in-custom-designs/873767/</t>
+          <t>https://www.tradewheel.com/buyers/urgent-requirement-of-aluminium-scrap/873952/</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Good day, Is there any source for tie downs suitable for transport and cargo securing? Kindly provide details about material strength, load capacity, and available sizes. Regular supply with durable quality will be preferred.</t>
+          <t>We are looking for reliable suppliers to urgently provide Aluminium Scrap. Immediate deals with competitive pricing are highly preferred.</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -4071,29 +4071,29 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>OEM Request for Steel Wire Rope as per custom sizes</t>
+          <t>Immediate purchase - Peptide</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/oem-request-for-steel-wire-rope-as-per/873762/</t>
+          <t>https://www.tradewheel.com/buyers/immediate-purchase-peptide/873956/</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Our company requires steel wire rope in 6x19 and 6x36 constructions, galvanized finish, with diameters from 10mm–20mm.</t>
+          <t>Hello mate, I want to purchase Weight Loss Peptide. Need quotes and proper details.</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -4103,29 +4103,29 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Planning to buy Contact Lenses for optical and vision care demand</t>
+          <t>RFQ for LCD Modules</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/planning-to-buy-contact-lenses-for-optical-and/873761/</t>
+          <t>https://www.tradewheel.com/buyers/rfq-for-lcd-modules/873957/</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>We are exploring suppliers of contact lenses for optical distribution, with focus on quality, comfort, and safety compliance. Kindly share details on lens types (daily, monthly, colored, or toric), certifications, and packaging formats. Shelf life, b...</t>
+          <t>Hey there, I need prices and details for procuring LCD Modules for residential use.</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -4135,29 +4135,29 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>OEM Request for Instant Boba in customized flavors</t>
+          <t>Quote prices for Copper Wire Scrap, Millberry Copper 99.999%</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/oem-request-for-instant-boba-in-customized-flavors/873760/</t>
+          <t>https://www.tradewheel.com/buyers/quote-prices-for-copper-wire-scrap-millberry-copper/873960/</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Our firm is planning to procure instant boba in 1kg vacuum packs, with a shelf life of at least 12 months.</t>
+          <t>Hey friend, I am interested in purchasing Copper Wire Scrap, Millberry Copper 99.999% for industrial use. Let me know the prices, details and the MOQ.</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -4167,29 +4167,29 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Planning to buy Heat Press Machine for workshop use</t>
+          <t>Would like to buy Gothic-style Wall Tapestry</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/planning-to-buy-heat-press-machine-for-workshop/873759/</t>
+          <t>https://www.tradewheel.com/buyers/would-like-to-buy-gothic-style-wall-tapestry/873962/</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Is there any supplier of heat press machines for professional use? Kindly share information on model availability, pressing sizes, and safety features. A durable build and timely delivery terms will help us make a decision.</t>
+          <t>Hello, We are seeking to purchase Gothic-style Wall Tapestry for international buyers. Could you please share: MOQ (minimum order quantity) Unit price (EXW or FOB) Lead time (samples &amp; bulk) Available materials and customization (logo/packag...</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Morocco</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -4199,29 +4199,29 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Require Gat Traditional Korean Hat for cultural fashion needs</t>
+          <t>Want details about Electric Scooters</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/require-gat-traditional-korean-hat-for-cultural-fashion/873758/</t>
+          <t>https://www.tradewheel.com/buyers/want-details-about-electric-scooters/873963/</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Is there any source for traditional Korean Gat hats in authentic styles? I’d like to know what materials, sizes, and craftsmanship details you can provide. Consistent quality and steady availability will be necessary for cooperation.</t>
+          <t>Hey dear, I am willing to purchase Electric Scooters with custom specs. Let me know the models you own and the price quotation.</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Malaysia</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -4231,29 +4231,29 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Seeking Smart LED Lights for retail and wholesale demand</t>
+          <t>Wish To Buy Diesel Fuel EN590</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/seeking-smart-led-lights-for-retail-and-wholesale/873754/</t>
+          <t>https://www.tradewheel.com/buyers/wish-to-buy-diesel-fuel-en590/873964/</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>I am sourcing smart LED lights for residential and commercial applications. Please provide information on wattage options, color temperature, and smart control features such as Wi-Fi or app compatibility. Details on energy efficiency, certifications,...</t>
+          <t>Hi, I am need a supplier of 10ppm Diesel Fuel EN590 for export buyers. Following are my requirements and specifications: Product: EN 590 Quantity: 100,000 metric tan Tenure: 1 year with roll and extension Incoterm: Ship to Ship "STS" Port of Di...</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -4263,29 +4263,29 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Need PET Fruit Boxes for packaging fresh produce</t>
+          <t>Require Iron for wholesale</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/need-pet-fruit-boxes-for-packaging-fresh-produce/873753/</t>
+          <t>https://www.tradewheel.com/buyers/require-iron-for-wholesale/873966/</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Our firm is planning to procure PET fruit boxes in 500g and 1kg sizes with transparent lid and vent holes. Kindly confirm stock.</t>
+          <t>Hey there, We are searching for Iron. Let us know the prices and proper details.</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -4295,630 +4295,2454 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Seeking Stainless Steel Screws for general repair and fitting work</t>
+          <t>Purchasing Copper Wire Scrap 99.99% in bulk</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/seeking-stainless-steel-screws-for-general-repair-and/873752/</t>
+          <t>https://www.tradewheel.com/buyers/purchasing-copper-wire-scrap-9999-in-bulk/873973/</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>We are looking to procure stainless steel screws in M6 and M8 sizes, grade 304, with anti-rust coating. Delivery to India.</t>
+          <t>Hello, I have rush order for Copper Wire Scrap 99.99%. Contact ASAP.</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>2 days ago</t>
+          <t>1 day ago</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Want details about Oil Seeds</t>
+          <t>Urgent Requirement for Aluminum Ingots A7</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/want-details-about-oil-seeds/873885/</t>
+          <t>https://www.tradewheel.com/buyers/urgent-requirement-for-aluminum-ingots-a7/873974/</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>I need to purchase Oil Seeds with following two inquiries. 1- Oreign of seeds 2- oil contents 3- price per 40 kg. Let me know the prices and details ASAP.</t>
+          <t>Hello, I am sourcing Aluminum Ingots A7 at competitive prices. Let me know the price quotation and other details.</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Bahrain</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>2 days ago</t>
+          <t>1 day ago</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Wish to purchase 10ppm Diesel Fuel EN590</t>
+          <t>Looking to purchase Frozen Whole Chicken, Feet, Paws, Wings</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/wish-to-purchase-10ppm-diesel-fuel-en590/873886/</t>
+          <t>https://www.tradewheel.com/buyers/looking-to-purchase-frozen-whole-chicken-feet-paws/873975/</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Hey dear, Kindly send the price quotation and proper details for buying 10ppm Diesel Fuel EN590.</t>
+          <t>Hi there, I am intending to purchase Frozen Whole Chicken, Feet, Paws, Wings for wholesale. Need prices and details.</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Peru</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>2 days ago</t>
+          <t>1 day ago</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Arabica Coffee Beans needed for retail chain supply</t>
+          <t>Quotation for WiFi CCTV Camera</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/arabica-coffee-beans-needed-for-retail-chain-supply/873887/</t>
+          <t>https://www.tradewheel.com/buyers/quotation-for-wifi-cctv-camera/873976/</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Hey friend I would like to purchase Arabica Coffee Beans for E-commerce store launch. Could you please send the prices and further details.</t>
+          <t>Hello, Quote prices and share the proper details for purchasing WiFi CCTV Camera.</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>2 days ago</t>
+          <t>1 day ago</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Procuring Dalo Textile Marker with private labelling</t>
+          <t>Aluminum Ingots needed for project use</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/procuring-dalo-textile-marker-with-private-labelling/873889/</t>
+          <t>https://www.tradewheel.com/buyers/aluminum-ingots-needed-for-project-use/873985/</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Hey dear, I am in need of Dalo Textile Marker from manufacturer. Suggest the best prices and proper details.</t>
+          <t>Hello,. We are importing Aluminum Ingots for export to UAE. Need prices and details.</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Senegal</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>2 days ago</t>
+          <t>1 day ago</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Purchasing Rock Phosphate And Sulphur Granulated in bulk</t>
+          <t>Ready to purchase Aluminum Wire Scrap</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/purchasing-rock-phosphate-and-sulphur-granulated-in-bulk/873890/</t>
+          <t>https://www.tradewheel.com/buyers/ready-to-purchase-aluminum-wire-scrap/873990/</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Hello mate, I require Rock Phosphate And Sulphur Granulated for industrial use. Kindly send the best price quotation and proper details.</t>
+          <t>Hello, We are planning for bulk purchase of Aluminum Wire Scrap. Kindly send the best prices and proper details.</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Kenya</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>2 days ago</t>
+          <t>1 day ago</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Export Buyer Needs Vanilla Beans – Long-Term Supply Contract</t>
+          <t>Prices for Dried Raw Betel Nuts</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/export-buyer-needs-vanilla-beans-long-term-supply/873891/</t>
+          <t>https://www.tradewheel.com/buyers/prices-for-dried-raw-betel-nuts/873999/</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>An export buyer requires vanilla beans for a long-term supply contract. Trusted suppliers are encouraged to send offers promptly.</t>
+          <t>Hello, I am here likely to import Dried Raw Betel Nuts on large scale. Let me know the total cost including the shipping charges towards me.</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>2 days ago</t>
+          <t>1 day ago</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Sourcing Granular Sulphur for US Wholesale Buyers</t>
+          <t>OEM require for Lining Material</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/sourcing-granular-sulphur-for-us-wholesale-buyers/873892/</t>
+          <t>https://www.tradewheel.com/buyers/oem-require-for-lining-material/874006/</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>We are sourcing granular sulphur to meet demand from US wholesale buyers. Reliable exporters are invited to quote best prices.</t>
+          <t>Hey Friend, I am ready to place a bulk order for Lining Material. Suggest me your best price quotation and proper details.</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Mauritius</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>2 days ago</t>
+          <t>1 day ago</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Buying Scooter for resale</t>
+          <t>Searching for A4 Printing Paper</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/buying-scooter-for-resale/873894/</t>
+          <t>https://www.tradewheel.com/buyers/searching-for-a4-printing-paper/874020/</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>We are buying scooters in bulk for resale in local markets. Exporters and manufacturers may provide their latest offers.</t>
+          <t>Hi Sir / Madam, I need a supplier for buying A4 Printing Paper in bulk quantity. Kindly send the prices and other details.</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>2 days ago</t>
+          <t>1 day ago</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Require Tables and Bed for wholesale</t>
+          <t>Procuring Vape And Electronic Cigarettes with private labelling</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/require-tables-and-bed-for-wholesale/873895/</t>
+          <t>https://www.tradewheel.com/buyers/procuring-vape-and-electronic-cigarettes-with-private-labelling/874023/</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>We require tables and beds for wholesale distribution. Furniture manufacturers and suppliers are welcome to connect.</t>
+          <t>Hello, I want to procure Vape And Electronic Cigarettes for retail chain supply. Could you please send me the best prices and details.</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>2 days ago</t>
+          <t>1 day ago</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Ready to buy Disposable Vape</t>
+          <t>Interested in procuring Aluminum Wire Scrap</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/ready-to-buy-disposable-vape/873897/</t>
+          <t>https://www.tradewheel.com/buyers/interested-in-procuring-aluminum-wire-scrap/874031/</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>We are ready to buy disposable vapes in assorted flavors. Suppliers with competitive rates are invited for discussion.</t>
+          <t>Hello, I am looking to purchase Aluminum Wire Scrap. Need prices, details and the delivery charges.</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>2 days ago</t>
+          <t>1 day ago</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Want to source Sunflower Oil</t>
+          <t>Want to buy Field Hockey Sticks, Carbon Hockey Sticks</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/want-to-source-sunflower-oil/873898/</t>
+          <t>https://www.tradewheel.com/buyers/want-to-buy-field-hockey-sticks-carbon-hockey/874036/</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>We want to source pure and refined sunflower oil for food processing. Exporters may send specifications and price details.</t>
+          <t>Hello dear, We have urgent requirement for Field Hockey Sticks, Carbon Hockey Sticks. Kindly send the best prices and full details.</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>2 days ago</t>
+          <t>1 day ago</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Need Coffee Beans urgently</t>
+          <t>Buying Bicycle Rack for residential use</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/need-coffee-beans-urgently/873900/</t>
+          <t>https://www.tradewheel.com/buyers/buying-bicycle-rack-for-residential-use/874037/</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>We need premium-grade coffee beans urgently for bulk procurement. Exporters with fast delivery timelines may contact us.</t>
+          <t>Dear Sir / Madam, I require Bicycle Rack for industrial use. Send the prices and more details for bulk purchase.</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>2 days ago</t>
+          <t>1 day ago</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Would like to import Western Dress</t>
+          <t>RFQ for sports water bottle</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/would-like-to-import-western-dress/873901/</t>
+          <t>https://www.tradewheel.com/buyers/rfq-for-sports-water-bottle/874132/</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>We would like to import stylish western dresses in assorted sizes. Exporters and manufacturers are invited to provide catalogs.</t>
+          <t>We are looking for 2000 sport water bottle How much will be cost delivery to Poland? Size: 10.5cm*29.5cm Color: Purple/Blue/Pink/Black Capacity: 2000ml Materia: Plastic Craft: Machine Made applicable people: Adults thermal insulation performan...</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>2 days ago</t>
+          <t>1 day ago</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Would like to buy Lithium Ion Battery Scrap</t>
+          <t>Buying Camel Milk Powder for resale</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/would-like-to-buy-lithium-ion-battery-scrap/873902/</t>
+          <t>https://www.tradewheel.com/buyers/buying-camel-milk-powder-for-resale/874191/</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>We would like to buy lithium-ion battery scrap in bulk quantities. Suppliers with consistent availability are requested to quote.</t>
+          <t>Buying camel milk powder in large volumes for resale. Certified suppliers with export experience are preferred.</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>2 days ago</t>
+          <t>1 day ago</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Interested in Oranges</t>
+          <t>Require Washing Machine for wholesale</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/interested-in-oranges/873903/</t>
+          <t>https://www.tradewheel.com/buyers/require-washing-machine-for-wholesale/874192/</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>We are interested in purchasing fresh and high-quality oranges. Exporters offering competitive rates are encouraged to connect.</t>
+          <t>Require washing machines for wholesale distribution. Interested suppliers, please share models and bulk pricing.</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>2 days ago</t>
+          <t>1 day ago</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Looking for continuous supply of Cut off Wheels</t>
+          <t>Required PT-141 lyophilized powder door to door</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/looking-for-continuous-supply-of-cut-off-wheels/873910/</t>
+          <t>https://www.tradewheel.com/buyers/required-pt-141-lyophilized-powder-door-to-door/874303/</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>We are seeking a continuous supply of high-performance cut-off wheels. Long-term partners are welcome to provide best prices.</t>
+          <t>I would like to request a sample of "PT-141 lyophilized powder door to door". Could you please let me know how I can request a sample of the product and if there are any associated costs? Thank you.</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>2 days ago</t>
+          <t>1 day ago</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Planning bulk order of Diesel Fuel</t>
+          <t>Looking for Cutting tools</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/planning-bulk-order-of-diesel-fuel/873915/</t>
+          <t>https://www.tradewheel.com/buyers/looking-for-cutting-tools/874310/</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>We are planning a bulk purchase of diesel fuel for industrial use. Genuine exporters and suppliers may provide their quotations.</t>
+          <t>Share the quotation and pictures</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Bangladesh</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>3 days ago</t>
+          <t>1 day ago</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Factory to produce molded pulp tray</t>
+          <t>Interested in 50CC 4 Stroke gas powered cooler scooter</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/factory-to-produce-molded-pulp-tray/874033/</t>
+          <t>https://www.tradewheel.com/buyers/interested-in-50cc-4-stroke-gas-powered-cooler/874315/</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>I am Ishan from Dhaka city of Bangladesh and I am in search of a Chinese factory who deals in molded pulp tray. Professionals are welcome to contact me only from China.</t>
+          <t>Interested importing into mexico</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>2025-09-17 10:11:02</t>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>1 day ago</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Interested to buy Aluminum ingot A7 99.7% and A8 99.8%</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>https://www.tradewheel.com/buyers/interested-to-buy-aluminum-ingot-a7-997-and/874318/</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Hi, please contact me with details of A7, we are ready to buy from Korea, thanks</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2025-09-17 15:33:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Vietnam</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>1 day ago</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Interested in dates juice</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>https://www.tradewheel.com/buyers/interested-in-dates-juice/874328/</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Hi, I am a buyer from Vietam looking to buy dates juice. I am interested in your product and would like to discuss further. Kindly reply to this mail. Regards.</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>2025-09-17 15:33:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>1 day ago</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Required  Horse Riding Tights Silicone Printed Breeches</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>https://www.tradewheel.com/buyers/required-horse-riding-tights-silicone-printed-breeches/874331/</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>What sizes and colours do you offer?</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>2025-09-17 15:33:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Peru</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>1 day ago</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Need to import a black nickel</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>https://www.tradewheel.com/buyers/need-to-import-a-black-nickel/874333/</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Dear Sirs, Good evening, we are from Peru and I need to import a black nickel combination lock, measuring 65mm x 33mm, with a custom embossed logo. Approximate order quantity: 8,000 sets (2 pieces). We saw the S120 model in your online catalog.</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>2025-09-17 15:33:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Hong Kong</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>1 day ago</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Medical Devices</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>https://www.tradewheel.com/buyers/medical-devices/874338/</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Hi, I hope you are doing well Are you looking to connect with EVs and Medical Devices Manufacturers? If yes, let me know your Target Countries and I'll share the more information</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2025-09-17 15:33:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>1 day ago</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Interested in Instruments TI-84 Plus CE Colors Graphings Calculator</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>https://www.tradewheel.com/buyers/interested-in-instruments-ti-84-plus-ce-colors-graphings/874349/</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Hello Interested in the item, what’s the minimum order and price?</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>2025-09-17 15:33:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>1 day ago</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Looking for Supari Betel Nut Areca Nut</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>https://www.tradewheel.com/buyers/looking-for-supari-betel-nut-areca-nut/874350/</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Hello, I am looking for areca nuts (supari) that are suitable for the Indian market. Please share the available varieties, specifications, and best price details.</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>2025-09-17 15:33:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>1 day ago</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Looking for chia seeds</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>https://www.tradewheel.com/buyers/looking-for-chia-seeds/874357/</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Dear sirs! I'd like to offer you chia seeds (latin name: Salvia Hispanica), from Argentina and Paraguay and quinoa from Peru. Our company is a producer and exporter for this unique product. The product is packaged in 25 kg bags, and the pu...</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>2025-09-17 15:33:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>1 day ago</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Required CHAOBAO D-002 D-003 D-004 D-005 Luxury umbrella stand with lock umbrella holder</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>https://www.tradewheel.com/buyers/required-chaobao-d-002-d-003-d-004-d-005-luxury-umbrella/874361/</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Kindly provide your best cost for this item with delivery cost to our GUANGZHOU warehouse. LUXURY UMBRELLA STAND;WITH LOCK (UMBRELLA HOLDER), DIMENSION:1060 X 450X 860MM (L*W*H), 36 HEAD SIZE, COLOUR - BLACK,FUNCTION:HANGIN G,MATERIAL: IRON WITH POWD...</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>2025-09-17 15:33:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>1 day ago</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Interested in Used Cooking Oil For Biodiesel</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>https://www.tradewheel.com/buyers/interested-in-used-cooking-oil-for-biodiesel/874362/</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Hello I am interested in buying used cooking oil. If possible send me a WhatsApp</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>2025-09-17 15:33:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Pakistan</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>1 day ago</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Want to buy Organic Soybean Meal</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>https://www.tradewheel.com/buyers/want-to-buy-organic-soybean-meal/874363/</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>I want information about soybean meal please</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>2025-09-17 15:33:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>1 day ago</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Want to order  SD300 or SD330</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>https://www.tradewheel.com/buyers/want-to-order-sd300-or-sd330/874365/</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Hello, we would like to order 1 piece of the SD300 or SD330 ASAP. Can someone please reply to my email or contact me via whatsapp. Thank you Julia</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>2025-09-17 15:33:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>1 day ago</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Interested in Fireworks</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>https://www.tradewheel.com/buyers/interested-in-fireworks/874366/</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Hello - Can you assist me with some products that I am interested in ? I am interested in your Smoke Items Smoke Color Cakes Bomb</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>2025-09-17 15:33:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Kazakhstan</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>1 day ago</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Need to buy auto meter</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>https://www.tradewheel.com/buyers/need-to-buy-auto-meter/874367/</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>I need your product</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>2025-09-17 15:33:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>1 day ago</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Looking for Digital Signage and Displays</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>https://www.tradewheel.com/buyers/looking-for-digital-signage-and-displays/873828/</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Hi, We are looking for Digital Signage and Displays standing 55 inch and 65 inches 500 units, 250 units each</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>2025-09-17 15:33:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Afghanistan</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>1 day ago</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Looking for Eggs</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>https://www.tradewheel.com/buyers/looking-for-eggs/873824/</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Hello, I need Eggs, MOQ is 10 containers 40ft</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>2025-09-17 15:33:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>1 day ago</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Looking for Minerals</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>https://www.tradewheel.com/buyers/looking-for-minerals/873822/</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Hello 👋. Yes. we need lead-zinc ore high quality, MOQ is 20TON</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>2025-09-17 15:33:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>1 day ago</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Searching for VAPES</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>https://www.tradewheel.com/buyers/searching-for-vapes/873820/</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Hello, I need Vapes, Moq is 1pc as a sample</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>2025-09-17 15:33:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Iran</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>1 day ago</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Looking for Carpets</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>https://www.tradewheel.com/buyers/looking-for-carpets/873819/</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Hello, I need Carpets, MOQ is 10 CONTAINERS</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>2025-09-17 15:33:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>1 day ago</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Planning to buy Skin Care items for retail and wholesale</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>https://www.tradewheel.com/buyers/planning-to-buy-skin-care-items-for-retail/873812/</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Our company requires anti-aging skin serum in 30ml frosted glass bottles, formulated with peptides and vitamin C, suitable for sensitive skin.</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>2025-09-17 15:33:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>1 day ago</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Planning to buy Liquid Silicone Rubber for manufacturing projects</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>https://www.tradewheel.com/buyers/planning-to-buy-liquid-silicone-rubber-for-manufacturing/873811/</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Our company is interested in liquid silicone rubber with high transparency, hardness 20–60 Shore A, supplied in sealed 20kg pails.</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>2025-09-17 15:33:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>2 days ago</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Interested in buying Yellow And White Maize Corn</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>https://www.tradewheel.com/buyers/interested-in-buying-yellow-and-white-maize-corn/873813/</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Hey mate, I am seeking to purchase Yellow And White Maize Corn on large scale. Kindly send quotes and details.</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>2025-09-17 15:33:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>2 days ago</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Quote prices for JNR Cruiser No-Charge Disposable Vape 12000 Puffs 25ml 3500mAh</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>https://www.tradewheel.com/buyers/quote-prices-for-jnr-cruiser-no-charge-disposable-vape/873814/</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Hey friend. I would like to purchase JNR Cruiser No-Charge Disposable Vape 12000 Puffs 25ml 3500mAh. Kindly send the price quotation and more details.</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>2025-09-17 15:33:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>2 days ago</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Require Aluminum UBC Scrap for OEM</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>https://www.tradewheel.com/buyers/require-aluminum-ubc-scrap-for-oem/873815/</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Hello friend, I am in need of Aluminum UBC Scrap from manufacturer. Could you please send me the price quotation and more details.</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>2025-09-17 15:33:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Reunion</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>2 days ago</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Buying Canned Sardine In Vegetable Oil for OEM</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>https://www.tradewheel.com/buyers/buying-canned-sardine-in-vegetable-oil-for-oem/873821/</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Hello dear, I need to purchase Canned Sardine In Vegetable Oil for resale. Please suggest the price list and proper details.</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>2025-09-17 15:33:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>2 days ago</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Demand for Onions, Almonds, Grains, Wheat</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>https://www.tradewheel.com/buyers/demand-for-onions-almonds-grains-wheat/873829/</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>Hey mate, We are searching for Onions, Almonds, Grains, Wheat for export to europe. Quote prices and share the details.</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>2025-09-17 15:33:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>2 days ago</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Bulk purchase inquire for Soy Milk Powder</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>https://www.tradewheel.com/buyers/bulk-purchase-inquire-for-soy-milk-powder/873833/</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Hey friend, We are in need of Soy Milk Powder from manufacturer. Could you please send the price quotation as per tons and more information.</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>2025-09-17 15:33:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>2 days ago</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Wish to purchase Sports Caps</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>https://www.tradewheel.com/buyers/wish-to-purchase-sports-caps/873835/</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Hey mate, I am buying Sports Caps with private labelling. Send the price list and full details.</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>2025-09-17 15:33:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>2 days ago</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Planning to purchase Vape And Electronic Cigarettes</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>https://www.tradewheel.com/buyers/planning-to-purchase-vape-and-electronic-cigarettes/873847/</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Hello mate, We are requesting quotes for buying Vape And Electronic Cigarettes. Let us know the details ASAP.</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>2025-09-17 15:33:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>2 days ago</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Want details about Refrigeration &amp; Heat Exchange Parts</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>https://www.tradewheel.com/buyers/want-details-about-refrigeration-heat-exchange-parts/873873/</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>Hey dear, We are here likely to purchase Refrigeration &amp; Heat Exchange Parts. Kindly send the catalogue, prices and other details.</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>2025-09-17 15:33:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>2 days ago</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Demand for procuring Car LED Warning Light</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>https://www.tradewheel.com/buyers/demand-for-procuring-car-led-warning-light/873875/</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>Dear Sir / Madam, I am intending to procure Car LED Warning Light on large scale. Quote prices and send the proper details.</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>2025-09-17 15:33:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>2 days ago</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Sourcing Aluminum Swivel Plates at competitive prices</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>https://www.tradewheel.com/buyers/sourcing-aluminum-swivel-plates-at-competitive-prices/873876/</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>Hi friend, I am procuring Aluminum Swivel Plates with private labelling. Kindly send the price quotation and proper details.</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>2025-09-17 15:33:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>2 days ago</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>OEM require for UV Screen Protector</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>https://www.tradewheel.com/buyers/oem-require-for-uv-screen-protector/873877/</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Hey dear, Could you please send me the price quotation and proper details for buying UV Screen Protector.</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>2025-09-17 15:33:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>2 days ago</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Would like to purchase Stickers And Skins</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>https://www.tradewheel.com/buyers/would-like-to-purchase-stickers-and-skins/873878/</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>Hello friend, I have rush order for Stickers And Skins. Contact me so that i can tell you my requirements.</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>2025-09-17 15:33:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>2 days ago</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Antiseptic Black Soap supplier needed for wholesale buyers</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>https://www.tradewheel.com/buyers/antiseptic-black-soap-supplier-needed-for-wholesale-buyers/873879/</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>Hey dear, I am planning for bulk purchase of Antiseptic Black Soap. Could you please send the details and price quotation along the shipping charges.</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>2025-09-17 15:33:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>2 days ago</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Quotation for NEXA Ultra 50k Puff Disposable Vape</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>https://www.tradewheel.com/buyers/quotation-for-nexa-ultra-50k-puff-disposable-vape/873882/</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>Hey there, I need prices and details for buying NEXA Ultra 50k Puff Disposable Vape.</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>2025-09-17 15:33:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>2 days ago</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Importing Dried Cocoa Beans - Need quotes</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>https://www.tradewheel.com/buyers/importing-dried-cocoa-beans-need-quotes/873884/</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>Hi friend, We are searching for reliable supplier who can supply us the bulk quantity of Dried Cocoa Beans in reasonable prices. Let us know the delivery charges also.</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>2025-09-17 15:33:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Pakistan</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>2 days ago</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Want details about Oil Seeds</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>https://www.tradewheel.com/buyers/want-details-about-oil-seeds/873885/</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>I need to purchase Oil Seeds with following two inquiries. 1- Oreign of seeds 2- oil contents 3- price per 40 kg. Let me know the prices and details ASAP.</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>2025-09-17 15:33:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Bahrain</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>2 days ago</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Wish to purchase 10ppm Diesel Fuel EN590</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>https://www.tradewheel.com/buyers/wish-to-purchase-10ppm-diesel-fuel-en590/873886/</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>Hey dear, Kindly send the price quotation and proper details for buying 10ppm Diesel Fuel EN590.</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>2025-09-17 15:33:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>2 days ago</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Arabica Coffee Beans needed for retail chain supply</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>https://www.tradewheel.com/buyers/arabica-coffee-beans-needed-for-retail-chain-supply/873887/</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>Hey friend I would like to purchase Arabica Coffee Beans for E-commerce store launch. Could you please send the prices and further details.</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>2025-09-17 15:33:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Pakistan</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>2 days ago</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Procuring Dalo Textile Marker with private labelling</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>https://www.tradewheel.com/buyers/procuring-dalo-textile-marker-with-private-labelling/873889/</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>Hey dear, I am in need of Dalo Textile Marker from manufacturer. Suggest the best prices and proper details.</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>2025-09-17 15:33:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Senegal</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>2 days ago</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Purchasing Rock Phosphate And Sulphur Granulated in bulk</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>https://www.tradewheel.com/buyers/purchasing-rock-phosphate-and-sulphur-granulated-in-bulk/873890/</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>Hello mate, I require Rock Phosphate And Sulphur Granulated for industrial use. Kindly send the best price quotation and proper details.</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>2025-09-17 15:33:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>2 days ago</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Export Buyer Needs Vanilla Beans – Long-Term Supply Contract</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>https://www.tradewheel.com/buyers/export-buyer-needs-vanilla-beans-long-term-supply/873891/</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>An export buyer requires vanilla beans for a long-term supply contract. Trusted suppliers are encouraged to send offers promptly.</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>2025-09-17 15:33:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>2 days ago</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Sourcing Granular Sulphur for US Wholesale Buyers</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>https://www.tradewheel.com/buyers/sourcing-granular-sulphur-for-us-wholesale-buyers/873892/</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>We are sourcing granular sulphur to meet demand from US wholesale buyers. Reliable exporters are invited to quote best prices.</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>2025-09-17 15:33:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Hungary</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>2 days ago</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Buying Scooter for resale</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>https://www.tradewheel.com/buyers/buying-scooter-for-resale/873894/</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>We are buying scooters in bulk for resale in local markets. Exporters and manufacturers may provide their latest offers.</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>2025-09-17 15:33:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>2 days ago</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Require Tables and Bed for wholesale</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>https://www.tradewheel.com/buyers/require-tables-and-bed-for-wholesale/873895/</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>We require tables and beds for wholesale distribution. Furniture manufacturers and suppliers are welcome to connect.</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>2025-09-17 15:33:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>2 days ago</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Ready to buy Disposable Vape</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>https://www.tradewheel.com/buyers/ready-to-buy-disposable-vape/873897/</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>We are ready to buy disposable vapes in assorted flavors. Suppliers with competitive rates are invited for discussion.</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>2025-09-17 15:33:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>2 days ago</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Want to source Sunflower Oil</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>https://www.tradewheel.com/buyers/want-to-source-sunflower-oil/873898/</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>We want to source pure and refined sunflower oil for food processing. Exporters may send specifications and price details.</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>2025-09-17 15:33:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>2 days ago</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Need Coffee Beans urgently</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>https://www.tradewheel.com/buyers/need-coffee-beans-urgently/873900/</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>We need premium-grade coffee beans urgently for bulk procurement. Exporters with fast delivery timelines may contact us.</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>2025-09-17 15:33:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>2 days ago</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Would like to import Western Dress</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>https://www.tradewheel.com/buyers/would-like-to-import-western-dress/873901/</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>We would like to import stylish western dresses in assorted sizes. Exporters and manufacturers are invited to provide catalogs.</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>2025-09-17 15:33:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>2 days ago</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Would like to buy Lithium Ion Battery Scrap</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>https://www.tradewheel.com/buyers/would-like-to-buy-lithium-ion-battery-scrap/873902/</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>We would like to buy lithium-ion battery scrap in bulk quantities. Suppliers with consistent availability are requested to quote.</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>2025-09-17 15:33:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>2 days ago</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Interested in Oranges</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>https://www.tradewheel.com/buyers/interested-in-oranges/873903/</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>We are interested in purchasing fresh and high-quality oranges. Exporters offering competitive rates are encouraged to connect.</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>2025-09-17 15:33:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>2 days ago</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Looking for continuous supply of Cut off Wheels</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>https://www.tradewheel.com/buyers/looking-for-continuous-supply-of-cut-off-wheels/873910/</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>We are seeking a continuous supply of high-performance cut-off wheels. Long-term partners are welcome to provide best prices.</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>2025-09-17 15:33:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>2 days ago</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Planning bulk order of Diesel Fuel</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>https://www.tradewheel.com/buyers/planning-bulk-order-of-diesel-fuel/873915/</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>We are planning a bulk purchase of diesel fuel for industrial use. Genuine exporters and suppliers may provide their quotations.</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>2025-09-17 15:33:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Pakistan</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>3 days ago</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Head lights of Honda CD 70</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>https://www.tradewheel.com/buyers/head-lights-of-honda-cd-70/874047/</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>I want to buy Head lights for Honda CD 70 in medium quality. My required quantity is 50,000 Pcs and I would like to get a quote.</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>2025-09-17 15:33:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Bangladesh</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>3 days ago</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Factory to produce molded pulp tray</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>https://www.tradewheel.com/buyers/factory-to-produce-molded-pulp-tray/874033/</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>I am Ishan from Dhaka city of Bangladesh and I am in search of a Chinese factory who deals in molded pulp tray. Professionals are welcome to contact me only from China.</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>2025-09-17 15:33:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
           <t>United Arab Emirates</t>
         </is>
       </c>
-      <c r="B140" t="inlineStr">
+      <c r="B196" t="inlineStr">
         <is>
           <t>4 days ago</t>
         </is>
       </c>
-      <c r="C140" t="inlineStr">
+      <c r="C196" t="inlineStr">
         <is>
           <t>Require Hydraulic Piston Pump for machinery and equipment use</t>
         </is>
       </c>
-      <c r="D140" t="inlineStr">
+      <c r="D196" t="inlineStr">
         <is>
           <t>https://www.tradewheel.com/buyers/require-hydraulic-piston-pump-for-machinery-and-equipment/874041/</t>
         </is>
       </c>
-      <c r="E140" t="inlineStr">
+      <c r="E196" t="inlineStr">
         <is>
           <t>Our company requires hydraulic piston pumps with 50–100 L/min flow rate, operating pressure up to 250 bar, and suitable for heavy-duty industrial equipment.</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>2025-09-17 10:11:02</t>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>2025-09-17 15:33:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>South Korea</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>4 weeks ago</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Looking For Insulation and Construction Materials Perlite Organic Fertilizer</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>https://www.tradewheel.com/buyers/looking-for-insulation-and-construction-materials-perlite-organic/874300/</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>Hello, this is JH Park We are the company importing various materials (Trading with Vietnam, Indonesia, SriLanka, Chian and so on) 1) Hope to check the samples &gt; perlite &gt; 2-4mm 2) Is it possible to apply our own package desgin ? Please che...</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>2025-09-17 15:33:51</t>
         </is>
       </c>
     </row>
